--- a/input/gameMinBet.xlsx
+++ b/input/gameMinBet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\chiisen\coin_size\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9027850C-1485-4323-A280-CC6466D44E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB9CCED-8541-4374-B87B-D5C98FBCA746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,7 +378,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -388,6 +388,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,12 +427,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -815,8 +824,8 @@
   </sheetPr>
   <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77:XFD77"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106:XFD106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1551,8 +1560,8 @@
       <c r="C52" t="s">
         <v>58</v>
       </c>
-      <c r="D52">
-        <v>5</v>
+      <c r="D52" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1565,8 +1574,8 @@
       <c r="C53" t="s">
         <v>59</v>
       </c>
-      <c r="D53">
-        <v>50</v>
+      <c r="D53" s="2">
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1579,8 +1588,8 @@
       <c r="C54" t="s">
         <v>60</v>
       </c>
-      <c r="D54">
-        <v>50</v>
+      <c r="D54" s="2">
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1593,8 +1602,8 @@
       <c r="C55" t="s">
         <v>61</v>
       </c>
-      <c r="D55">
-        <v>50</v>
+      <c r="D55" s="2">
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1621,8 +1630,8 @@
       <c r="C57" t="s">
         <v>63</v>
       </c>
-      <c r="D57">
-        <v>50</v>
+      <c r="D57" s="2">
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1649,8 +1658,8 @@
       <c r="C59" t="s">
         <v>65</v>
       </c>
-      <c r="D59">
-        <v>50</v>
+      <c r="D59" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1663,8 +1672,8 @@
       <c r="C60" t="s">
         <v>66</v>
       </c>
-      <c r="D60">
-        <v>50</v>
+      <c r="D60" s="2">
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1677,8 +1686,8 @@
       <c r="C61" t="s">
         <v>67</v>
       </c>
-      <c r="D61">
-        <v>50</v>
+      <c r="D61" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2195,8 +2204,8 @@
       <c r="C98" t="s">
         <v>100</v>
       </c>
-      <c r="D98">
-        <v>30</v>
+      <c r="D98" s="2">
+        <v>25</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2223,8 +2232,8 @@
       <c r="C100" t="s">
         <v>101</v>
       </c>
-      <c r="D100">
-        <v>1</v>
+      <c r="D100" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2237,8 +2246,8 @@
       <c r="C101" t="s">
         <v>102</v>
       </c>
-      <c r="D101">
-        <v>1</v>
+      <c r="D101" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/input/gameMinBet.xlsx
+++ b/input/gameMinBet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\chiisen\coin_size\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB9CCED-8541-4374-B87B-D5C98FBCA746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F21BC5-3F06-4F09-AA33-F144ABCA70EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gameMinBet" sheetId="3" r:id="rId1"/>
@@ -370,15 +370,14 @@
       <charset val="136"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -394,6 +393,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,15 +432,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -824,1499 +841,1500 @@
   </sheetPr>
   <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106:XFD106"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
-    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="2" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>171201</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row r="3" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>180206</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    <row r="4" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>180207</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row r="5" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>180302</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>180906</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    <row r="7" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>180907</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+    <row r="8" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>200508</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+    <row r="9" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>200509</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+    <row r="10" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>200510</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+    <row r="11" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>200511</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+    <row r="12" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>200512</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+    <row r="13" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>200516</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+    <row r="14" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>200517</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+    <row r="15" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>200518</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+    <row r="16" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>200519</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+    <row r="17" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>200520</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+    <row r="18" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>200521</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+    <row r="19" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>200522</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19">
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+    <row r="20" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>200523</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+    <row r="21" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>200524</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+    <row r="22" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
         <v>200525</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+    <row r="23" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
         <v>200526</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+    <row r="24" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
         <v>200527</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+    <row r="25" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
         <v>200528</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+    <row r="26" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
         <v>200529</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+    <row r="27" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
         <v>200530</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+    <row r="28" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
         <v>200537</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+    <row r="29" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
         <v>200538</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+    <row r="30" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
         <v>200539</v>
       </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
         <v>200540</v>
       </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+    <row r="32" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
         <v>200541</v>
       </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+    <row r="33" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
         <v>200542</v>
       </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B33" s="3">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="3">
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+    <row r="34" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
         <v>200543</v>
       </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="3">
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+    <row r="35" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
         <v>200544</v>
       </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B35" s="3">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="3">
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+    <row r="36" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
         <v>200545</v>
       </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="3">
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+    <row r="37" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
         <v>200546</v>
       </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B37" s="3">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+    <row r="38" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
         <v>201201</v>
       </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B38" s="3">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
+    <row r="39" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
         <v>201202</v>
       </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B39" s="3">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
+    <row r="40" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
         <v>201203</v>
       </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B40" s="3">
+        <v>1</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+    <row r="41" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
         <v>201204</v>
       </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B41" s="3">
+        <v>1</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
+    <row r="42" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
         <v>201205</v>
       </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B42" s="3">
+        <v>1</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
+    <row r="43" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
         <v>201206</v>
       </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B43" s="3">
+        <v>1</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
+    <row r="44" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
         <v>201207</v>
       </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="B44" s="3">
+        <v>1</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
+    <row r="45" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
         <v>201208</v>
       </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="B45" s="3">
+        <v>1</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
+    <row r="46" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
         <v>201209</v>
       </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="B46" s="3">
+        <v>1</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
+    <row r="47" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
         <v>201210</v>
       </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B47" s="3">
+        <v>1</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
+    <row r="48" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
         <v>201211</v>
       </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B48" s="3">
+        <v>1</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
+    <row r="49" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
         <v>201212</v>
       </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B49" s="3">
+        <v>1</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
+    <row r="50" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
         <v>201213</v>
       </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="B50" s="3">
+        <v>1</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
+    <row r="51" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
         <v>201216</v>
       </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="B51" s="3">
+        <v>1</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
+      <c r="D51" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
         <v>201217</v>
       </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="B52" s="3">
+        <v>1</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D52" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
+      <c r="D52" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
         <v>210101</v>
       </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="B53" s="3">
+        <v>1</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
+    <row r="54" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
         <v>210102</v>
       </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="B54" s="3">
+        <v>1</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
+    <row r="55" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
         <v>210103</v>
       </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="B55" s="3">
+        <v>1</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="4">
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
+    <row r="56" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
         <v>210104</v>
       </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="B56" s="3">
+        <v>1</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
+    <row r="57" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
         <v>210105</v>
       </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="B57" s="3">
+        <v>1</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
+    <row r="58" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
         <v>210106</v>
       </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="B58" s="3">
+        <v>1</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
+    <row r="59" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
         <v>210107</v>
       </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="B59" s="3">
+        <v>1</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
+    <row r="60" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
         <v>210108</v>
       </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="B60" s="3">
+        <v>1</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
+    <row r="61" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
         <v>210109</v>
       </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="B61" s="3">
+        <v>1</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
+    <row r="62" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
         <v>210110</v>
       </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="B62" s="3">
+        <v>1</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1">
+    <row r="63" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
         <v>210201</v>
       </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="B63" s="3">
+        <v>1</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
+    <row r="64" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
         <v>210202</v>
       </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="B64" s="3">
+        <v>1</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
+    <row r="65" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
         <v>210203</v>
       </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="B65" s="3">
+        <v>1</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
+    <row r="66" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
         <v>210204</v>
       </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="B66" s="3">
+        <v>1</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
+    <row r="67" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
         <v>210205</v>
       </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="B67" s="3">
+        <v>1</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1">
+    <row r="68" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
         <v>210303</v>
       </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="B68" s="3">
+        <v>1</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="1">
+      <c r="D68" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
         <v>210305</v>
       </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="B69" s="3">
+        <v>1</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
+    <row r="70" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
         <v>210311</v>
       </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="B70" s="3">
+        <v>1</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
+    <row r="71" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
         <v>210312</v>
       </c>
-      <c r="B71">
-        <v>1</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="B71" s="3">
+        <v>1</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
+    <row r="72" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
         <v>210313</v>
       </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="B72" s="3">
+        <v>1</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
+    <row r="73" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
         <v>210314</v>
       </c>
-      <c r="B73">
-        <v>1</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="B73" s="3">
+        <v>1</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
+    <row r="74" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
         <v>210315</v>
       </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="B74" s="3">
+        <v>1</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
+    <row r="75" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
         <v>210321</v>
       </c>
-      <c r="B75">
-        <v>1</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="B75" s="3">
+        <v>1</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
+    <row r="76" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
         <v>210322</v>
       </c>
-      <c r="B76">
-        <v>1</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="B76" s="3">
+        <v>1</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
+    <row r="77" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
         <v>210325</v>
       </c>
-      <c r="B77">
-        <v>1</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="B77" s="3">
+        <v>1</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
+    <row r="78" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
         <v>210326</v>
       </c>
-      <c r="B78">
-        <v>1</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="B78" s="3">
+        <v>1</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
+    <row r="79" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
         <v>210401</v>
       </c>
-      <c r="B79">
-        <v>1</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="B79" s="3">
+        <v>1</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
+      <c r="D79" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
         <v>210402</v>
       </c>
-      <c r="B80">
-        <v>1</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="B80" s="3">
+        <v>1</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
+      <c r="D80" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
         <v>210403</v>
       </c>
-      <c r="B81">
-        <v>1</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="B81" s="3">
+        <v>1</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
+    <row r="82" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
         <v>220101</v>
       </c>
-      <c r="B82">
-        <v>1</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="B82" s="3">
+        <v>1</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="1">
+    <row r="83" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
         <v>220102</v>
       </c>
-      <c r="B83">
-        <v>1</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="B83" s="3">
+        <v>1</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="1">
+    <row r="84" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
         <v>220103</v>
       </c>
-      <c r="B84">
-        <v>1</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="B84" s="3">
+        <v>1</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="1">
+    <row r="85" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
         <v>220104</v>
       </c>
-      <c r="B85">
-        <v>1</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="B85" s="3">
+        <v>1</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="1">
+    <row r="86" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
         <v>220105</v>
       </c>
-      <c r="B86">
-        <v>1</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="B86" s="3">
+        <v>1</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="1">
+    <row r="87" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
         <v>220106</v>
       </c>
-      <c r="B87">
-        <v>1</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="B87" s="3">
+        <v>1</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="1">
+    <row r="88" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
         <v>220107</v>
       </c>
-      <c r="B88">
-        <v>1</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="B88" s="3">
+        <v>1</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="1">
+    <row r="89" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
         <v>220108</v>
       </c>
-      <c r="B89">
-        <v>1</v>
-      </c>
-      <c r="C89" t="s">
+      <c r="B89" s="3">
+        <v>1</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="1">
+    <row r="90" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
         <v>220109</v>
       </c>
-      <c r="B90">
-        <v>1</v>
-      </c>
-      <c r="C90" t="s">
+      <c r="B90" s="3">
+        <v>1</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="1">
+    <row r="91" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
         <v>220110</v>
       </c>
-      <c r="B91">
-        <v>1</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="B91" s="3">
+        <v>1</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="1">
+    <row r="92" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
         <v>220111</v>
       </c>
-      <c r="B92">
-        <v>1</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="B92" s="3">
+        <v>1</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="1">
+    <row r="93" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
         <v>220112</v>
       </c>
-      <c r="B93">
-        <v>1</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="B93" s="3">
+        <v>1</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="1">
+    <row r="94" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
         <v>220113</v>
       </c>
-      <c r="B94">
-        <v>1</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="B94" s="3">
+        <v>1</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="3">
         <v>88</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="1">
+    <row r="95" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
         <v>220114</v>
       </c>
-      <c r="B95">
-        <v>1</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="B95" s="3">
+        <v>1</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="1">
+    <row r="96" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
         <v>220115</v>
       </c>
-      <c r="B96">
-        <v>1</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="B96" s="3">
+        <v>1</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="1">
+    <row r="97" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
         <v>220116</v>
       </c>
-      <c r="B97">
-        <v>1</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="B97" s="3">
+        <v>1</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="1">
+    <row r="98" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
         <v>220117</v>
       </c>
-      <c r="B98">
-        <v>1</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="B98" s="3">
+        <v>1</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D98" s="2">
+      <c r="D98" s="4">
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="1">
+    <row r="99" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
         <v>220118</v>
       </c>
-      <c r="B99">
-        <v>1</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="B99" s="3">
+        <v>1</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="1">
+    <row r="100" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
         <v>220119</v>
       </c>
-      <c r="B100">
-        <v>1</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="B100" s="3">
+        <v>1</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D100" s="2">
+      <c r="D100" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="1">
+    <row r="101" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
         <v>220120</v>
       </c>
-      <c r="B101">
-        <v>1</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="B101" s="3">
+        <v>1</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D101" s="2">
+      <c r="D101" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="1">
+    <row r="102" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="2">
         <v>220121</v>
       </c>
-      <c r="B102">
-        <v>1</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="B102" s="3">
+        <v>1</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="1">
+    <row r="103" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="2">
         <v>220122</v>
       </c>
-      <c r="B103">
-        <v>1</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="B103" s="3">
+        <v>1</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="1">
+      <c r="D103" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="2">
         <v>220123</v>
       </c>
-      <c r="B104">
-        <v>1</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="B104" s="3">
+        <v>1</v>
+      </c>
+      <c r="C104" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="1">
+    <row r="105" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="2">
         <v>220124</v>
       </c>
-      <c r="B105">
-        <v>1</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="B105" s="3">
+        <v>1</v>
+      </c>
+      <c r="C105" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="1">
+    <row r="106" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="2">
         <v>220201</v>
       </c>
-      <c r="B106">
-        <v>1</v>
-      </c>
-      <c r="C106" t="s">
+      <c r="B106" s="3">
+        <v>1</v>
+      </c>
+      <c r="C106" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="3">
         <v>25</v>
       </c>
     </row>

--- a/input/gameMinBet.xlsx
+++ b/input/gameMinBet.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\chiisen\coin_size\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15825D45-5058-494A-A4F2-8166A254E73B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE0179B-CBA5-488D-A89D-CBB65E37D8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29190" yWindow="-30" windowWidth="29040" windowHeight="15060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gameMinBet" sheetId="3" r:id="rId1"/>
+    <sheet name="說明" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="219">
   <si>
     <t>糖果狂想曲</t>
   </si>
@@ -729,6 +730,14 @@
   </si>
   <si>
     <t>阿心與阿甘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22款新遊戲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22款新遊戲:NameC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -951,7 +960,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -969,15 +978,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1069,11 +1069,67 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1498,35 +1554,38 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:K187"/>
+  <dimension ref="A1:M187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D83" sqref="D83"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.25" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="19.125" style="39" customWidth="1"/>
     <col min="4" max="4" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.375" customWidth="1"/>
     <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.75" style="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="37" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -1553,33 +1612,39 @@
       <c r="K1" s="1" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36">
+      <c r="L1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="M1" s="39" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="33">
         <v>10001</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D2" s="20">
-        <v>1</v>
-      </c>
-      <c r="E2" s="31" t="s">
+      <c r="D2" s="17">
+        <v>1</v>
+      </c>
+      <c r="E2" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="10">
         <v>10001</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="I2" s="20">
-        <v>1</v>
-      </c>
-      <c r="J2" s="20" t="s">
+      <c r="I2" s="17">
+        <v>1</v>
+      </c>
+      <c r="J2" s="17" t="s">
         <v>194</v>
       </c>
       <c r="K2" s="1" t="str">
@@ -1587,32 +1652,32 @@
         <v>同</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="36">
+    <row r="3" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="33">
         <v>10002</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="D3" s="20">
-        <v>1</v>
-      </c>
-      <c r="E3" s="31" t="s">
+      <c r="D3" s="17">
+        <v>1</v>
+      </c>
+      <c r="E3" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="10">
         <v>10002</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="I3" s="20">
-        <v>1</v>
-      </c>
-      <c r="J3" s="20" t="s">
+      <c r="I3" s="17">
+        <v>1</v>
+      </c>
+      <c r="J3" s="17" t="s">
         <v>194</v>
       </c>
       <c r="K3" s="1" t="str">
@@ -1620,32 +1685,32 @@
         <v>同</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="36">
+    <row r="4" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="33">
         <v>10003</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="20">
-        <v>1</v>
-      </c>
-      <c r="E4" s="31" t="s">
+      <c r="D4" s="17">
+        <v>1</v>
+      </c>
+      <c r="E4" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="10">
         <v>10003</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="I4" s="20">
-        <v>1</v>
-      </c>
-      <c r="J4" s="20" t="s">
+      <c r="I4" s="17">
+        <v>1</v>
+      </c>
+      <c r="J4" s="17" t="s">
         <v>194</v>
       </c>
       <c r="K4" s="1" t="str">
@@ -1653,32 +1718,32 @@
         <v>同</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36">
+    <row r="5" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="33">
         <v>10004</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D5" s="20">
-        <v>1</v>
-      </c>
-      <c r="E5" s="31" t="s">
+      <c r="D5" s="17">
+        <v>1</v>
+      </c>
+      <c r="E5" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="10">
         <v>10004</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="I5" s="20">
-        <v>1</v>
-      </c>
-      <c r="J5" s="20" t="s">
+      <c r="I5" s="17">
+        <v>1</v>
+      </c>
+      <c r="J5" s="17" t="s">
         <v>194</v>
       </c>
       <c r="K5" s="1" t="str">
@@ -1686,32 +1751,32 @@
         <v>同</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="36">
+    <row r="6" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="33">
         <v>10005</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="D6" s="20">
-        <v>1</v>
-      </c>
-      <c r="E6" s="31" t="s">
+      <c r="D6" s="17">
+        <v>1</v>
+      </c>
+      <c r="E6" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="10">
         <v>10005</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="I6" s="20">
-        <v>1</v>
-      </c>
-      <c r="J6" s="20" t="s">
+      <c r="I6" s="17">
+        <v>1</v>
+      </c>
+      <c r="J6" s="17" t="s">
         <v>194</v>
       </c>
       <c r="K6" s="1" t="str">
@@ -1719,32 +1784,32 @@
         <v>同</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="36">
+    <row r="7" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="33">
         <v>10006</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D7" s="20">
-        <v>1</v>
-      </c>
-      <c r="E7" s="31" t="s">
+      <c r="D7" s="17">
+        <v>1</v>
+      </c>
+      <c r="E7" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="10">
         <v>10006</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="I7" s="20">
-        <v>1</v>
-      </c>
-      <c r="J7" s="20" t="s">
+      <c r="I7" s="17">
+        <v>1</v>
+      </c>
+      <c r="J7" s="17" t="s">
         <v>194</v>
       </c>
       <c r="K7" s="1" t="str">
@@ -1752,32 +1817,32 @@
         <v>同</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="36">
+    <row r="8" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="33">
         <v>10007</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="D8" s="20">
-        <v>1</v>
-      </c>
-      <c r="E8" s="31" t="s">
+      <c r="D8" s="17">
+        <v>1</v>
+      </c>
+      <c r="E8" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="10">
         <v>10007</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="I8" s="20">
-        <v>1</v>
-      </c>
-      <c r="J8" s="20" t="s">
+      <c r="I8" s="17">
+        <v>1</v>
+      </c>
+      <c r="J8" s="17" t="s">
         <v>194</v>
       </c>
       <c r="K8" s="1" t="str">
@@ -1785,32 +1850,32 @@
         <v>同</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="36">
+    <row r="9" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="33">
         <v>10008</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="D9" s="20">
-        <v>1</v>
-      </c>
-      <c r="E9" s="31" t="s">
+      <c r="D9" s="17">
+        <v>1</v>
+      </c>
+      <c r="E9" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="10">
         <v>10008</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="I9" s="20">
-        <v>1</v>
-      </c>
-      <c r="J9" s="20" t="s">
+      <c r="I9" s="17">
+        <v>1</v>
+      </c>
+      <c r="J9" s="17" t="s">
         <v>194</v>
       </c>
       <c r="K9" s="1" t="str">
@@ -1818,32 +1883,32 @@
         <v>同</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="36">
+    <row r="10" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="33">
         <v>10009</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D10" s="20">
-        <v>1</v>
-      </c>
-      <c r="E10" s="31" t="s">
+      <c r="D10" s="17">
+        <v>1</v>
+      </c>
+      <c r="E10" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="10">
         <v>10009</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="I10" s="20">
-        <v>1</v>
-      </c>
-      <c r="J10" s="20" t="s">
+      <c r="I10" s="17">
+        <v>1</v>
+      </c>
+      <c r="J10" s="17" t="s">
         <v>194</v>
       </c>
       <c r="K10" s="1" t="str">
@@ -1851,32 +1916,32 @@
         <v>同</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="36">
+    <row r="11" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="33">
         <v>10011</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="D11" s="20">
-        <v>1</v>
-      </c>
-      <c r="E11" s="31" t="s">
+      <c r="D11" s="17">
+        <v>1</v>
+      </c>
+      <c r="E11" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="10">
         <v>10011</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="I11" s="20">
-        <v>1</v>
-      </c>
-      <c r="J11" s="20" t="s">
+      <c r="I11" s="17">
+        <v>1</v>
+      </c>
+      <c r="J11" s="17" t="s">
         <v>194</v>
       </c>
       <c r="K11" s="1" t="str">
@@ -1884,32 +1949,32 @@
         <v>同</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="36">
+    <row r="12" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="33">
         <v>10012</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="D12" s="20">
-        <v>1</v>
-      </c>
-      <c r="E12" s="31" t="s">
+      <c r="D12" s="17">
+        <v>1</v>
+      </c>
+      <c r="E12" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="10">
         <v>10012</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="I12" s="20">
-        <v>1</v>
-      </c>
-      <c r="J12" s="20" t="s">
+      <c r="I12" s="17">
+        <v>1</v>
+      </c>
+      <c r="J12" s="17" t="s">
         <v>194</v>
       </c>
       <c r="K12" s="1" t="str">
@@ -1917,32 +1982,32 @@
         <v>同</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="36">
+    <row r="13" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="33">
         <v>10014</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="D13" s="20">
-        <v>1</v>
-      </c>
-      <c r="E13" s="31" t="s">
+      <c r="D13" s="17">
+        <v>1</v>
+      </c>
+      <c r="E13" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="10">
         <v>10014</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="I13" s="20">
-        <v>1</v>
-      </c>
-      <c r="J13" s="20" t="s">
+      <c r="I13" s="17">
+        <v>1</v>
+      </c>
+      <c r="J13" s="17" t="s">
         <v>194</v>
       </c>
       <c r="K13" s="1" t="str">
@@ -1950,32 +2015,32 @@
         <v>同</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="36">
+    <row r="14" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="33">
         <v>10081</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="D14" s="20">
-        <v>1</v>
-      </c>
-      <c r="E14" s="31" t="s">
+      <c r="D14" s="17">
+        <v>1</v>
+      </c>
+      <c r="E14" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="10">
         <v>10081</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="I14" s="20">
-        <v>1</v>
-      </c>
-      <c r="J14" s="20" t="s">
+      <c r="I14" s="17">
+        <v>1</v>
+      </c>
+      <c r="J14" s="17" t="s">
         <v>194</v>
       </c>
       <c r="K14" s="1" t="str">
@@ -1983,32 +2048,32 @@
         <v>同</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="36">
+    <row r="15" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="33">
         <v>10082</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="D15" s="20">
-        <v>1</v>
-      </c>
-      <c r="E15" s="31" t="s">
+      <c r="D15" s="17">
+        <v>1</v>
+      </c>
+      <c r="E15" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="10">
         <v>10082</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="I15" s="20">
-        <v>1</v>
-      </c>
-      <c r="J15" s="20" t="s">
+      <c r="I15" s="17">
+        <v>1</v>
+      </c>
+      <c r="J15" s="17" t="s">
         <v>194</v>
       </c>
       <c r="K15" s="1" t="str">
@@ -2016,32 +2081,32 @@
         <v>同</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="36">
+    <row r="16" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="33">
         <v>10083</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="D16" s="20">
-        <v>1</v>
-      </c>
-      <c r="E16" s="31" t="s">
+      <c r="D16" s="17">
+        <v>1</v>
+      </c>
+      <c r="E16" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="10">
         <v>10083</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="I16" s="20">
-        <v>1</v>
-      </c>
-      <c r="J16" s="20" t="s">
+      <c r="I16" s="17">
+        <v>1</v>
+      </c>
+      <c r="J16" s="17" t="s">
         <v>194</v>
       </c>
       <c r="K16" s="1" t="str">
@@ -2050,13 +2115,13 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
+      <c r="A17" s="7">
         <v>171201</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="38" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="1">
@@ -2065,19 +2130,19 @@
       <c r="E17" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="9">
         <v>171201</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="10">
         <v>171201</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="17">
         <v>30</v>
       </c>
-      <c r="J17" s="20" t="s">
+      <c r="J17" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K17" s="1" t="str">
@@ -2086,13 +2151,13 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
+      <c r="A18" s="7">
         <v>180206</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="38" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="1">
@@ -2101,19 +2166,19 @@
       <c r="E18" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="9">
         <v>180206</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="10">
         <v>180206</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="20">
+      <c r="I18" s="17">
         <v>3</v>
       </c>
-      <c r="J18" s="20" t="s">
+      <c r="J18" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K18" s="1" t="str">
@@ -2122,13 +2187,13 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
+      <c r="A19" s="7">
         <v>180207</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="38" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="1">
@@ -2137,19 +2202,19 @@
       <c r="E19" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="9">
         <v>180207</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="10">
         <v>180207</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="20">
+      <c r="I19" s="17">
         <v>5</v>
       </c>
-      <c r="J19" s="20" t="s">
+      <c r="J19" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K19" s="1" t="str">
@@ -2158,13 +2223,13 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
+      <c r="A20" s="7">
         <v>180302</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="38" t="s">
         <v>23</v>
       </c>
       <c r="D20" s="1">
@@ -2173,19 +2238,19 @@
       <c r="E20" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="9">
         <v>180302</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="10">
         <v>180302</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I20" s="20">
-        <v>1</v>
-      </c>
-      <c r="J20" s="20" t="s">
+      <c r="I20" s="17">
+        <v>1</v>
+      </c>
+      <c r="J20" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K20" s="1" t="str">
@@ -2194,13 +2259,13 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
+      <c r="A21" s="7">
         <v>180906</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="38" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="1">
@@ -2209,19 +2274,19 @@
       <c r="E21" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="9">
         <v>180906</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="10">
         <v>180906</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="20">
+      <c r="I21" s="17">
         <v>5</v>
       </c>
-      <c r="J21" s="20" t="s">
+      <c r="J21" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K21" s="1" t="str">
@@ -2230,13 +2295,13 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
+      <c r="A22" s="7">
         <v>180907</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="38" t="s">
         <v>25</v>
       </c>
       <c r="D22" s="1">
@@ -2245,19 +2310,19 @@
       <c r="E22" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="9">
         <v>180907</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="10">
         <v>180907</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="H22" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I22" s="20">
+      <c r="I22" s="17">
         <v>5</v>
       </c>
-      <c r="J22" s="20" t="s">
+      <c r="J22" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K22" s="1" t="str">
@@ -2266,32 +2331,32 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="36">
+      <c r="A23" s="33">
         <v>200503</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D23" s="20">
-        <v>1</v>
-      </c>
-      <c r="E23" s="30" t="s">
+      <c r="D23" s="17">
+        <v>1</v>
+      </c>
+      <c r="E23" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="13">
+      <c r="F23" s="6"/>
+      <c r="G23" s="10">
         <v>200503</v>
       </c>
-      <c r="H23" s="13" t="s">
+      <c r="H23" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="I23" s="20">
-        <v>1</v>
-      </c>
-      <c r="J23" s="20" t="s">
+      <c r="I23" s="17">
+        <v>1</v>
+      </c>
+      <c r="J23" s="17" t="s">
         <v>196</v>
       </c>
       <c r="K23" s="1" t="str">
@@ -2300,32 +2365,32 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="36">
+      <c r="A24" s="33">
         <v>200504</v>
       </c>
       <c r="B24" s="1">
         <v>1</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D24" s="20">
-        <v>1</v>
-      </c>
-      <c r="E24" s="30" t="s">
+      <c r="D24" s="17">
+        <v>1</v>
+      </c>
+      <c r="E24" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="13">
+      <c r="F24" s="6"/>
+      <c r="G24" s="10">
         <v>200504</v>
       </c>
-      <c r="H24" s="13" t="s">
+      <c r="H24" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="I24" s="20">
-        <v>1</v>
-      </c>
-      <c r="J24" s="20" t="s">
+      <c r="I24" s="17">
+        <v>1</v>
+      </c>
+      <c r="J24" s="17" t="s">
         <v>196</v>
       </c>
       <c r="K24" s="1" t="str">
@@ -2334,32 +2399,32 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="36">
+      <c r="A25" s="33">
         <v>200505</v>
       </c>
       <c r="B25" s="1">
         <v>1</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D25" s="20">
-        <v>1</v>
-      </c>
-      <c r="E25" s="30" t="s">
+      <c r="D25" s="17">
+        <v>1</v>
+      </c>
+      <c r="E25" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="13">
+      <c r="F25" s="6"/>
+      <c r="G25" s="10">
         <v>200505</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="H25" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="I25" s="20">
-        <v>1</v>
-      </c>
-      <c r="J25" s="20" t="s">
+      <c r="I25" s="17">
+        <v>1</v>
+      </c>
+      <c r="J25" s="17" t="s">
         <v>196</v>
       </c>
       <c r="K25" s="1" t="str">
@@ -2368,32 +2433,32 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="36">
+      <c r="A26" s="33">
         <v>200506</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D26" s="20">
-        <v>1</v>
-      </c>
-      <c r="E26" s="30" t="s">
+      <c r="D26" s="17">
+        <v>1</v>
+      </c>
+      <c r="E26" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="13">
+      <c r="F26" s="6"/>
+      <c r="G26" s="10">
         <v>200506</v>
       </c>
-      <c r="H26" s="14" t="s">
+      <c r="H26" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="I26" s="20">
-        <v>1</v>
-      </c>
-      <c r="J26" s="20" t="s">
+      <c r="I26" s="17">
+        <v>1</v>
+      </c>
+      <c r="J26" s="17" t="s">
         <v>196</v>
       </c>
       <c r="K26" s="1" t="str">
@@ -2402,32 +2467,32 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="36">
+      <c r="A27" s="33">
         <v>200507</v>
       </c>
       <c r="B27" s="1">
         <v>1</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="20">
-        <v>1</v>
-      </c>
-      <c r="E27" s="30" t="s">
+      <c r="D27" s="17">
+        <v>1</v>
+      </c>
+      <c r="E27" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="13">
+      <c r="F27" s="6"/>
+      <c r="G27" s="10">
         <v>200507</v>
       </c>
-      <c r="H27" s="13" t="s">
+      <c r="H27" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="I27" s="20">
-        <v>1</v>
-      </c>
-      <c r="J27" s="20" t="s">
+      <c r="I27" s="17">
+        <v>1</v>
+      </c>
+      <c r="J27" s="17" t="s">
         <v>196</v>
       </c>
       <c r="K27" s="1" t="str">
@@ -2436,13 +2501,13 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10">
+      <c r="A28" s="7">
         <v>200508</v>
       </c>
       <c r="B28" s="1">
         <v>1</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="38" t="s">
         <v>26</v>
       </c>
       <c r="D28" s="1">
@@ -2451,19 +2516,19 @@
       <c r="E28" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="9">
         <v>200508</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G28" s="10">
         <v>200508</v>
       </c>
-      <c r="H28" s="13" t="s">
+      <c r="H28" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I28" s="20">
+      <c r="I28" s="17">
         <v>10</v>
       </c>
-      <c r="J28" s="20" t="s">
+      <c r="J28" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K28" s="1" t="str">
@@ -2472,13 +2537,13 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10">
+      <c r="A29" s="7">
         <v>200509</v>
       </c>
       <c r="B29" s="1">
         <v>1</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="38" t="s">
         <v>0</v>
       </c>
       <c r="D29" s="1">
@@ -2487,19 +2552,19 @@
       <c r="E29" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F29" s="9">
         <v>200509</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G29" s="10">
         <v>200509</v>
       </c>
-      <c r="H29" s="13" t="s">
+      <c r="H29" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="I29" s="20">
+      <c r="I29" s="17">
         <v>10</v>
       </c>
-      <c r="J29" s="20" t="s">
+      <c r="J29" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K29" s="1" t="str">
@@ -2508,13 +2573,13 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10">
+      <c r="A30" s="7">
         <v>200510</v>
       </c>
       <c r="B30" s="1">
         <v>1</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="38" t="s">
         <v>27</v>
       </c>
       <c r="D30" s="1">
@@ -2523,19 +2588,19 @@
       <c r="E30" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="9">
         <v>200510</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G30" s="10">
         <v>200510</v>
       </c>
-      <c r="H30" s="13" t="s">
+      <c r="H30" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I30" s="20">
+      <c r="I30" s="17">
         <v>50</v>
       </c>
-      <c r="J30" s="20" t="s">
+      <c r="J30" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K30" s="1" t="str">
@@ -2544,13 +2609,13 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="10">
+      <c r="A31" s="7">
         <v>200511</v>
       </c>
       <c r="B31" s="1">
         <v>1</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="38" t="s">
         <v>28</v>
       </c>
       <c r="D31" s="1">
@@ -2559,19 +2624,19 @@
       <c r="E31" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="9">
         <v>200511</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G31" s="10">
         <v>200511</v>
       </c>
-      <c r="H31" s="13" t="s">
+      <c r="H31" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I31" s="20">
+      <c r="I31" s="17">
         <v>30</v>
       </c>
-      <c r="J31" s="20" t="s">
+      <c r="J31" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K31" s="1" t="str">
@@ -2580,13 +2645,13 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="10">
+      <c r="A32" s="7">
         <v>200512</v>
       </c>
       <c r="B32" s="1">
         <v>1</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="38" t="s">
         <v>29</v>
       </c>
       <c r="D32" s="1">
@@ -2595,19 +2660,19 @@
       <c r="E32" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F32" s="9">
         <v>200512</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G32" s="10">
         <v>200512</v>
       </c>
-      <c r="H32" s="13" t="s">
+      <c r="H32" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I32" s="20">
+      <c r="I32" s="17">
         <v>25</v>
       </c>
-      <c r="J32" s="20" t="s">
+      <c r="J32" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K32" s="1" t="str">
@@ -2616,32 +2681,32 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="36">
+      <c r="A33" s="33">
         <v>200513</v>
       </c>
       <c r="B33" s="1">
         <v>1</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="17">
         <v>50</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="13">
+      <c r="F33" s="6"/>
+      <c r="G33" s="10">
         <v>200513</v>
       </c>
-      <c r="H33" s="13" t="s">
+      <c r="H33" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="I33" s="20">
+      <c r="I33" s="17">
         <v>50</v>
       </c>
-      <c r="J33" s="20" t="s">
+      <c r="J33" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K33" s="1" t="str">
@@ -2650,32 +2715,32 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="36">
+      <c r="A34" s="33">
         <v>200514</v>
       </c>
       <c r="B34" s="1">
         <v>1</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="D34" s="20">
+      <c r="D34" s="17">
         <v>9</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="13">
+      <c r="F34" s="6"/>
+      <c r="G34" s="10">
         <v>200514</v>
       </c>
-      <c r="H34" s="13" t="s">
+      <c r="H34" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="I34" s="20">
+      <c r="I34" s="17">
         <v>9</v>
       </c>
-      <c r="J34" s="20" t="s">
+      <c r="J34" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K34" s="1" t="str">
@@ -2684,32 +2749,32 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="36">
+      <c r="A35" s="33">
         <v>200515</v>
       </c>
       <c r="B35" s="1">
         <v>1</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D35" s="17">
         <v>15</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F35" s="9"/>
-      <c r="G35" s="13">
+      <c r="F35" s="6"/>
+      <c r="G35" s="10">
         <v>200515</v>
       </c>
-      <c r="H35" s="13" t="s">
+      <c r="H35" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="I35" s="20">
+      <c r="I35" s="17">
         <v>15</v>
       </c>
-      <c r="J35" s="20" t="s">
+      <c r="J35" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K35" s="1" t="str">
@@ -2718,13 +2783,13 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="35">
+      <c r="A36" s="32">
         <v>200516</v>
       </c>
       <c r="B36" s="1">
         <v>1</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="38" t="s">
         <v>30</v>
       </c>
       <c r="D36" s="1">
@@ -2733,19 +2798,19 @@
       <c r="E36" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F36" s="9">
         <v>200516</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G36" s="10">
         <v>200516</v>
       </c>
-      <c r="H36" s="13" t="s">
+      <c r="H36" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I36" s="20">
+      <c r="I36" s="17">
         <v>25</v>
       </c>
-      <c r="J36" s="20" t="s">
+      <c r="J36" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K36" s="1" t="str">
@@ -2754,13 +2819,13 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="35">
+      <c r="A37" s="32">
         <v>200517</v>
       </c>
       <c r="B37" s="1">
         <v>1</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="38" t="s">
         <v>31</v>
       </c>
       <c r="D37" s="1">
@@ -2769,19 +2834,19 @@
       <c r="E37" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F37" s="9">
         <v>200517</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G37" s="10">
         <v>200517</v>
       </c>
-      <c r="H37" s="13" t="s">
+      <c r="H37" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I37" s="20">
+      <c r="I37" s="17">
         <v>88</v>
       </c>
-      <c r="J37" s="20" t="s">
+      <c r="J37" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K37" s="1" t="str">
@@ -2790,13 +2855,13 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="35">
+      <c r="A38" s="32">
         <v>200518</v>
       </c>
       <c r="B38" s="1">
         <v>1</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="38" t="s">
         <v>32</v>
       </c>
       <c r="D38" s="1">
@@ -2805,19 +2870,19 @@
       <c r="E38" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F38" s="9">
         <v>200518</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G38" s="10">
         <v>200518</v>
       </c>
-      <c r="H38" s="13" t="s">
+      <c r="H38" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I38" s="20">
+      <c r="I38" s="17">
         <v>9</v>
       </c>
-      <c r="J38" s="20" t="s">
+      <c r="J38" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K38" s="1" t="str">
@@ -2826,13 +2891,13 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="35">
+      <c r="A39" s="32">
         <v>200519</v>
       </c>
       <c r="B39" s="1">
         <v>1</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="38" t="s">
         <v>33</v>
       </c>
       <c r="D39" s="1">
@@ -2841,19 +2906,19 @@
       <c r="E39" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F39" s="12">
+      <c r="F39" s="9">
         <v>200519</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G39" s="10">
         <v>200519</v>
       </c>
-      <c r="H39" s="13" t="s">
+      <c r="H39" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="I39" s="20">
+      <c r="I39" s="17">
         <v>50</v>
       </c>
-      <c r="J39" s="20" t="s">
+      <c r="J39" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K39" s="1" t="str">
@@ -2862,13 +2927,13 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="35">
+      <c r="A40" s="32">
         <v>200520</v>
       </c>
       <c r="B40" s="1">
         <v>1</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="38" t="s">
         <v>34</v>
       </c>
       <c r="D40" s="1">
@@ -2877,19 +2942,19 @@
       <c r="E40" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F40" s="9">
         <v>200520</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G40" s="10">
         <v>200520</v>
       </c>
-      <c r="H40" s="13" t="s">
+      <c r="H40" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="I40" s="20">
+      <c r="I40" s="17">
         <v>25</v>
       </c>
-      <c r="J40" s="20" t="s">
+      <c r="J40" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K40" s="1" t="str">
@@ -2898,13 +2963,13 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="35">
+      <c r="A41" s="32">
         <v>200521</v>
       </c>
       <c r="B41" s="1">
         <v>1</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="38" t="s">
         <v>35</v>
       </c>
       <c r="D41" s="1">
@@ -2913,19 +2978,19 @@
       <c r="E41" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F41" s="12">
+      <c r="F41" s="9">
         <v>200521</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G41" s="10">
         <v>200521</v>
       </c>
-      <c r="H41" s="13" t="s">
+      <c r="H41" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I41" s="20">
+      <c r="I41" s="17">
         <v>50</v>
       </c>
-      <c r="J41" s="20" t="s">
+      <c r="J41" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K41" s="1" t="str">
@@ -2934,13 +2999,13 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="35">
+      <c r="A42" s="32">
         <v>200522</v>
       </c>
       <c r="B42" s="1">
         <v>1</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="38" t="s">
         <v>1</v>
       </c>
       <c r="D42" s="1">
@@ -2949,19 +3014,19 @@
       <c r="E42" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F42" s="12">
+      <c r="F42" s="9">
         <v>200522</v>
       </c>
-      <c r="G42" s="13">
+      <c r="G42" s="10">
         <v>200522</v>
       </c>
-      <c r="H42" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="I42" s="20">
+      <c r="H42" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I42" s="17">
         <v>30</v>
       </c>
-      <c r="J42" s="20" t="s">
+      <c r="J42" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K42" s="1" t="str">
@@ -2970,13 +3035,13 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="35">
+      <c r="A43" s="32">
         <v>200523</v>
       </c>
       <c r="B43" s="1">
         <v>1</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="38" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="1">
@@ -2985,19 +3050,19 @@
       <c r="E43" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F43" s="12">
+      <c r="F43" s="9">
         <v>200523</v>
       </c>
-      <c r="G43" s="13">
+      <c r="G43" s="10">
         <v>200523</v>
       </c>
-      <c r="H43" s="13" t="s">
+      <c r="H43" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="I43" s="20">
+      <c r="I43" s="17">
         <v>30</v>
       </c>
-      <c r="J43" s="20" t="s">
+      <c r="J43" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K43" s="1" t="str">
@@ -3006,13 +3071,13 @@
       </c>
     </row>
     <row r="44" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="35">
+      <c r="A44" s="32">
         <v>200524</v>
       </c>
       <c r="B44" s="1">
         <v>1</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="38" t="s">
         <v>2</v>
       </c>
       <c r="D44" s="1">
@@ -3021,19 +3086,19 @@
       <c r="E44" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F44" s="12">
+      <c r="F44" s="9">
         <v>200524</v>
       </c>
-      <c r="G44" s="13">
+      <c r="G44" s="10">
         <v>200524</v>
       </c>
-      <c r="H44" s="13" t="s">
+      <c r="H44" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I44" s="20">
+      <c r="I44" s="17">
         <v>50</v>
       </c>
-      <c r="J44" s="20" t="s">
+      <c r="J44" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K44" s="1" t="str">
@@ -3042,13 +3107,13 @@
       </c>
     </row>
     <row r="45" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="35">
+      <c r="A45" s="32">
         <v>200525</v>
       </c>
       <c r="B45" s="1">
         <v>1</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="38" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="1">
@@ -3057,19 +3122,19 @@
       <c r="E45" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F45" s="12">
+      <c r="F45" s="9">
         <v>200525</v>
       </c>
-      <c r="G45" s="13">
+      <c r="G45" s="10">
         <v>200525</v>
       </c>
-      <c r="H45" s="13" t="s">
+      <c r="H45" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="I45" s="20">
+      <c r="I45" s="17">
         <v>25</v>
       </c>
-      <c r="J45" s="20" t="s">
+      <c r="J45" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K45" s="1" t="str">
@@ -3078,13 +3143,13 @@
       </c>
     </row>
     <row r="46" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="35">
+      <c r="A46" s="32">
         <v>200526</v>
       </c>
       <c r="B46" s="1">
         <v>1</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="38" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="1">
@@ -3093,19 +3158,19 @@
       <c r="E46" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F46" s="12">
+      <c r="F46" s="9">
         <v>200526</v>
       </c>
-      <c r="G46" s="13">
+      <c r="G46" s="10">
         <v>200526</v>
       </c>
-      <c r="H46" s="13" t="s">
+      <c r="H46" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="I46" s="20">
+      <c r="I46" s="17">
         <v>40</v>
       </c>
-      <c r="J46" s="20" t="s">
+      <c r="J46" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K46" s="1" t="str">
@@ -3114,13 +3179,13 @@
       </c>
     </row>
     <row r="47" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="35">
+      <c r="A47" s="32">
         <v>200527</v>
       </c>
       <c r="B47" s="1">
         <v>1</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="38" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="1">
@@ -3129,19 +3194,19 @@
       <c r="E47" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F47" s="12">
+      <c r="F47" s="9">
         <v>200527</v>
       </c>
-      <c r="G47" s="13">
+      <c r="G47" s="10">
         <v>200527</v>
       </c>
-      <c r="H47" s="13" t="s">
+      <c r="H47" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="I47" s="20">
+      <c r="I47" s="17">
         <v>40</v>
       </c>
-      <c r="J47" s="20" t="s">
+      <c r="J47" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K47" s="1" t="str">
@@ -3150,13 +3215,13 @@
       </c>
     </row>
     <row r="48" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="35">
+      <c r="A48" s="32">
         <v>200528</v>
       </c>
       <c r="B48" s="1">
         <v>1</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="38" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="1">
@@ -3165,19 +3230,19 @@
       <c r="E48" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F48" s="9">
         <v>200528</v>
       </c>
-      <c r="G48" s="13">
+      <c r="G48" s="10">
         <v>200528</v>
       </c>
-      <c r="H48" s="13" t="s">
+      <c r="H48" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="I48" s="20">
+      <c r="I48" s="17">
         <v>50</v>
       </c>
-      <c r="J48" s="20" t="s">
+      <c r="J48" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K48" s="1" t="str">
@@ -3186,13 +3251,13 @@
       </c>
     </row>
     <row r="49" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="35">
+      <c r="A49" s="32">
         <v>200529</v>
       </c>
       <c r="B49" s="1">
         <v>1</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="38" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="1">
@@ -3201,19 +3266,19 @@
       <c r="E49" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F49" s="12">
+      <c r="F49" s="9">
         <v>200529</v>
       </c>
-      <c r="G49" s="13">
+      <c r="G49" s="10">
         <v>200529</v>
       </c>
-      <c r="H49" s="13" t="s">
+      <c r="H49" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I49" s="20">
+      <c r="I49" s="17">
         <v>30</v>
       </c>
-      <c r="J49" s="20" t="s">
+      <c r="J49" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K49" s="1" t="str">
@@ -3222,13 +3287,13 @@
       </c>
     </row>
     <row r="50" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="35">
+      <c r="A50" s="32">
         <v>200530</v>
       </c>
       <c r="B50" s="1">
         <v>1</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="38" t="s">
         <v>42</v>
       </c>
       <c r="D50" s="1">
@@ -3237,19 +3302,19 @@
       <c r="E50" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F50" s="12">
+      <c r="F50" s="9">
         <v>200530</v>
       </c>
-      <c r="G50" s="13">
+      <c r="G50" s="10">
         <v>200530</v>
       </c>
-      <c r="H50" s="13" t="s">
+      <c r="H50" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I50" s="20">
+      <c r="I50" s="17">
         <v>50</v>
       </c>
-      <c r="J50" s="20" t="s">
+      <c r="J50" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K50" s="1" t="str">
@@ -3258,13 +3323,13 @@
       </c>
     </row>
     <row r="51" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="35">
+      <c r="A51" s="32">
         <v>200537</v>
       </c>
       <c r="B51" s="1">
         <v>1</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="38" t="s">
         <v>21</v>
       </c>
       <c r="D51" s="1">
@@ -3273,19 +3338,19 @@
       <c r="E51" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F51" s="12">
+      <c r="F51" s="9">
         <v>200537</v>
       </c>
-      <c r="G51" s="13">
+      <c r="G51" s="10">
         <v>200537</v>
       </c>
-      <c r="H51" s="13" t="s">
+      <c r="H51" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I51" s="20">
+      <c r="I51" s="17">
         <v>3</v>
       </c>
-      <c r="J51" s="20" t="s">
+      <c r="J51" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K51" s="1" t="str">
@@ -3294,13 +3359,13 @@
       </c>
     </row>
     <row r="52" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="35">
+      <c r="A52" s="32">
         <v>200538</v>
       </c>
       <c r="B52" s="1">
         <v>1</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="38" t="s">
         <v>43</v>
       </c>
       <c r="D52" s="1">
@@ -3309,19 +3374,19 @@
       <c r="E52" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F52" s="12">
+      <c r="F52" s="9">
         <v>200538</v>
       </c>
-      <c r="G52" s="13">
+      <c r="G52" s="10">
         <v>200538</v>
       </c>
-      <c r="H52" s="13" t="s">
+      <c r="H52" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I52" s="20">
+      <c r="I52" s="17">
         <v>5</v>
       </c>
-      <c r="J52" s="20" t="s">
+      <c r="J52" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K52" s="1" t="str">
@@ -3330,13 +3395,13 @@
       </c>
     </row>
     <row r="53" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="35">
+      <c r="A53" s="32">
         <v>200539</v>
       </c>
       <c r="B53" s="1">
         <v>1</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="38" t="s">
         <v>44</v>
       </c>
       <c r="D53" s="1">
@@ -3345,19 +3410,19 @@
       <c r="E53" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F53" s="12">
+      <c r="F53" s="9">
         <v>200539</v>
       </c>
-      <c r="G53" s="13">
+      <c r="G53" s="10">
         <v>200539</v>
       </c>
-      <c r="H53" s="13" t="s">
+      <c r="H53" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="I53" s="20">
-        <v>1</v>
-      </c>
-      <c r="J53" s="20" t="s">
+      <c r="I53" s="17">
+        <v>1</v>
+      </c>
+      <c r="J53" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K53" s="1" t="str">
@@ -3366,13 +3431,13 @@
       </c>
     </row>
     <row r="54" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="35">
+      <c r="A54" s="32">
         <v>200540</v>
       </c>
       <c r="B54" s="1">
         <v>1</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="38" t="s">
         <v>3</v>
       </c>
       <c r="D54" s="1">
@@ -3381,19 +3446,19 @@
       <c r="E54" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F54" s="12">
+      <c r="F54" s="9">
         <v>200540</v>
       </c>
-      <c r="G54" s="13">
+      <c r="G54" s="10">
         <v>200540</v>
       </c>
-      <c r="H54" s="13" t="s">
+      <c r="H54" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I54" s="20">
+      <c r="I54" s="17">
         <v>5</v>
       </c>
-      <c r="J54" s="20" t="s">
+      <c r="J54" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K54" s="1" t="str">
@@ -3402,13 +3467,13 @@
       </c>
     </row>
     <row r="55" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="35">
+      <c r="A55" s="32">
         <v>200541</v>
       </c>
       <c r="B55" s="1">
         <v>1</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="38" t="s">
         <v>45</v>
       </c>
       <c r="D55" s="1">
@@ -3417,19 +3482,19 @@
       <c r="E55" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F55" s="12">
+      <c r="F55" s="9">
         <v>200541</v>
       </c>
-      <c r="G55" s="13">
+      <c r="G55" s="10">
         <v>200541</v>
       </c>
-      <c r="H55" s="13" t="s">
+      <c r="H55" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="I55" s="20">
+      <c r="I55" s="17">
         <v>5</v>
       </c>
-      <c r="J55" s="20" t="s">
+      <c r="J55" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K55" s="1" t="str">
@@ -3438,13 +3503,13 @@
       </c>
     </row>
     <row r="56" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="35">
+      <c r="A56" s="32">
         <v>200542</v>
       </c>
       <c r="B56" s="1">
         <v>1</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="38" t="s">
         <v>46</v>
       </c>
       <c r="D56" s="1">
@@ -3453,19 +3518,19 @@
       <c r="E56" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F56" s="12">
+      <c r="F56" s="9">
         <v>200542</v>
       </c>
-      <c r="G56" s="13">
+      <c r="G56" s="10">
         <v>200542</v>
       </c>
-      <c r="H56" s="13" t="s">
+      <c r="H56" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I56" s="20">
+      <c r="I56" s="17">
         <v>88</v>
       </c>
-      <c r="J56" s="20" t="s">
+      <c r="J56" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K56" s="1" t="str">
@@ -3474,13 +3539,13 @@
       </c>
     </row>
     <row r="57" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="35">
+      <c r="A57" s="32">
         <v>200543</v>
       </c>
       <c r="B57" s="1">
         <v>1</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="38" t="s">
         <v>47</v>
       </c>
       <c r="D57" s="1">
@@ -3489,19 +3554,19 @@
       <c r="E57" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F57" s="12">
+      <c r="F57" s="9">
         <v>200543</v>
       </c>
-      <c r="G57" s="13">
+      <c r="G57" s="10">
         <v>200543</v>
       </c>
-      <c r="H57" s="13" t="s">
+      <c r="H57" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="I57" s="20">
+      <c r="I57" s="17">
         <v>88</v>
       </c>
-      <c r="J57" s="20" t="s">
+      <c r="J57" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K57" s="1" t="str">
@@ -3510,13 +3575,13 @@
       </c>
     </row>
     <row r="58" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="35">
+      <c r="A58" s="32">
         <v>200544</v>
       </c>
       <c r="B58" s="1">
         <v>1</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="38" t="s">
         <v>48</v>
       </c>
       <c r="D58" s="1">
@@ -3525,19 +3590,19 @@
       <c r="E58" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F58" s="12">
+      <c r="F58" s="9">
         <v>200544</v>
       </c>
-      <c r="G58" s="13">
+      <c r="G58" s="10">
         <v>200544</v>
       </c>
-      <c r="H58" s="13" t="s">
+      <c r="H58" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="I58" s="20">
+      <c r="I58" s="17">
         <v>88</v>
       </c>
-      <c r="J58" s="20" t="s">
+      <c r="J58" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K58" s="1" t="str">
@@ -3546,13 +3611,13 @@
       </c>
     </row>
     <row r="59" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="35">
+      <c r="A59" s="32">
         <v>200545</v>
       </c>
       <c r="B59" s="1">
         <v>1</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="38" t="s">
         <v>4</v>
       </c>
       <c r="D59" s="1">
@@ -3561,19 +3626,19 @@
       <c r="E59" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F59" s="12">
+      <c r="F59" s="9">
         <v>200545</v>
       </c>
-      <c r="G59" s="13">
+      <c r="G59" s="10">
         <v>200545</v>
       </c>
-      <c r="H59" s="13" t="s">
+      <c r="H59" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I59" s="20">
+      <c r="I59" s="17">
         <v>88</v>
       </c>
-      <c r="J59" s="20" t="s">
+      <c r="J59" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K59" s="1" t="str">
@@ -3582,13 +3647,13 @@
       </c>
     </row>
     <row r="60" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="35">
+      <c r="A60" s="32">
         <v>200546</v>
       </c>
       <c r="B60" s="1">
         <v>1</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="38" t="s">
         <v>49</v>
       </c>
       <c r="D60" s="1">
@@ -3597,19 +3662,19 @@
       <c r="E60" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F60" s="12">
+      <c r="F60" s="9">
         <v>200546</v>
       </c>
-      <c r="G60" s="13">
+      <c r="G60" s="10">
         <v>200546</v>
       </c>
-      <c r="H60" s="13" t="s">
+      <c r="H60" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="I60" s="20">
+      <c r="I60" s="17">
         <v>5</v>
       </c>
-      <c r="J60" s="20" t="s">
+      <c r="J60" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K60" s="1" t="str">
@@ -3618,13 +3683,13 @@
       </c>
     </row>
     <row r="61" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="10">
+      <c r="A61" s="7">
         <v>201201</v>
       </c>
       <c r="B61" s="1">
         <v>1</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="39" t="s">
         <v>50</v>
       </c>
       <c r="D61" s="1">
@@ -3633,16 +3698,16 @@
       <c r="E61" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G61" s="13">
+      <c r="G61" s="10">
         <v>201201</v>
       </c>
-      <c r="H61" s="13" t="s">
+      <c r="H61" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="I61" s="20">
+      <c r="I61" s="17">
         <v>9</v>
       </c>
-      <c r="J61" s="20" t="s">
+      <c r="J61" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K61" s="1" t="str">
@@ -3651,13 +3716,13 @@
       </c>
     </row>
     <row r="62" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="10">
+      <c r="A62" s="7">
         <v>201202</v>
       </c>
       <c r="B62" s="1">
         <v>1</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="39" t="s">
         <v>51</v>
       </c>
       <c r="D62" s="1">
@@ -3666,16 +3731,16 @@
       <c r="E62" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G62" s="13">
+      <c r="G62" s="10">
         <v>201202</v>
       </c>
-      <c r="H62" s="13" t="s">
+      <c r="H62" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="I62" s="20">
+      <c r="I62" s="17">
         <v>30</v>
       </c>
-      <c r="J62" s="20" t="s">
+      <c r="J62" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K62" s="1" t="str">
@@ -3684,13 +3749,13 @@
       </c>
     </row>
     <row r="63" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="10">
+      <c r="A63" s="7">
         <v>201203</v>
       </c>
       <c r="B63" s="1">
         <v>1</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="39" t="s">
         <v>5</v>
       </c>
       <c r="D63" s="1">
@@ -3699,16 +3764,16 @@
       <c r="E63" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G63" s="13">
+      <c r="G63" s="10">
         <v>201203</v>
       </c>
-      <c r="H63" s="13" t="s">
+      <c r="H63" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I63" s="20">
+      <c r="I63" s="17">
         <v>50</v>
       </c>
-      <c r="J63" s="20" t="s">
+      <c r="J63" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K63" s="1" t="str">
@@ -3717,13 +3782,13 @@
       </c>
     </row>
     <row r="64" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="35">
+      <c r="A64" s="32">
         <v>201204</v>
       </c>
       <c r="B64" s="1">
         <v>1</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="38" t="s">
         <v>52</v>
       </c>
       <c r="D64" s="1">
@@ -3732,19 +3797,19 @@
       <c r="E64" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F64" s="12">
+      <c r="F64" s="9">
         <v>201204</v>
       </c>
-      <c r="G64" s="13">
+      <c r="G64" s="10">
         <v>201204</v>
       </c>
-      <c r="H64" s="13" t="s">
+      <c r="H64" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="I64" s="20">
+      <c r="I64" s="17">
         <v>30</v>
       </c>
-      <c r="J64" s="20" t="s">
+      <c r="J64" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K64" s="1" t="str">
@@ -3753,13 +3818,13 @@
       </c>
     </row>
     <row r="65" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="10">
+      <c r="A65" s="7">
         <v>201205</v>
       </c>
       <c r="B65" s="1">
         <v>1</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="39" t="s">
         <v>53</v>
       </c>
       <c r="D65" s="1">
@@ -3768,16 +3833,16 @@
       <c r="E65" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G65" s="13">
+      <c r="G65" s="10">
         <v>201205</v>
       </c>
-      <c r="H65" s="13" t="s">
+      <c r="H65" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="I65" s="20">
+      <c r="I65" s="17">
         <v>25</v>
       </c>
-      <c r="J65" s="20" t="s">
+      <c r="J65" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K65" s="1" t="str">
@@ -3786,13 +3851,13 @@
       </c>
     </row>
     <row r="66" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="10">
+      <c r="A66" s="7">
         <v>201206</v>
       </c>
       <c r="B66" s="1">
         <v>1</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="39" t="s">
         <v>54</v>
       </c>
       <c r="D66" s="1">
@@ -3801,16 +3866,16 @@
       <c r="E66" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G66" s="13">
+      <c r="G66" s="10">
         <v>201206</v>
       </c>
-      <c r="H66" s="13" t="s">
+      <c r="H66" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="I66" s="20">
+      <c r="I66" s="17">
         <v>30</v>
       </c>
-      <c r="J66" s="20" t="s">
+      <c r="J66" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K66" s="1" t="str">
@@ -3819,13 +3884,13 @@
       </c>
     </row>
     <row r="67" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="35">
+      <c r="A67" s="32">
         <v>201207</v>
       </c>
       <c r="B67" s="1">
         <v>1</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="38" t="s">
         <v>55</v>
       </c>
       <c r="D67" s="1">
@@ -3834,19 +3899,19 @@
       <c r="E67" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F67" s="12">
+      <c r="F67" s="9">
         <v>201207</v>
       </c>
-      <c r="G67" s="13">
+      <c r="G67" s="10">
         <v>201207</v>
       </c>
-      <c r="H67" s="13" t="s">
+      <c r="H67" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I67" s="20">
+      <c r="I67" s="17">
         <v>25</v>
       </c>
-      <c r="J67" s="20" t="s">
+      <c r="J67" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K67" s="1" t="str">
@@ -3855,13 +3920,13 @@
       </c>
     </row>
     <row r="68" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="10">
+      <c r="A68" s="7">
         <v>201208</v>
       </c>
       <c r="B68" s="1">
         <v>1</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="39" t="s">
         <v>6</v>
       </c>
       <c r="D68" s="1">
@@ -3870,16 +3935,16 @@
       <c r="E68" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G68" s="13">
+      <c r="G68" s="10">
         <v>201208</v>
       </c>
-      <c r="H68" s="14" t="s">
+      <c r="H68" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I68" s="20">
+      <c r="I68" s="17">
         <v>25</v>
       </c>
-      <c r="J68" s="20" t="s">
+      <c r="J68" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K68" s="1" t="str">
@@ -3888,13 +3953,13 @@
       </c>
     </row>
     <row r="69" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="35">
+      <c r="A69" s="32">
         <v>201209</v>
       </c>
       <c r="B69" s="1">
         <v>1</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="38" t="s">
         <v>7</v>
       </c>
       <c r="D69" s="1">
@@ -3903,19 +3968,19 @@
       <c r="E69" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F69" s="12">
+      <c r="F69" s="9">
         <v>201209</v>
       </c>
-      <c r="G69" s="13">
+      <c r="G69" s="10">
         <v>201209</v>
       </c>
-      <c r="H69" s="13" t="s">
+      <c r="H69" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I69" s="20">
+      <c r="I69" s="17">
         <v>25</v>
       </c>
-      <c r="J69" s="20" t="s">
+      <c r="J69" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K69" s="1" t="str">
@@ -3924,13 +3989,13 @@
       </c>
     </row>
     <row r="70" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="35">
+      <c r="A70" s="32">
         <v>201210</v>
       </c>
       <c r="B70" s="1">
         <v>1</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="38" t="s">
         <v>8</v>
       </c>
       <c r="D70" s="1">
@@ -3939,19 +4004,19 @@
       <c r="E70" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F70" s="12">
+      <c r="F70" s="9">
         <v>201210</v>
       </c>
-      <c r="G70" s="13">
+      <c r="G70" s="10">
         <v>201210</v>
       </c>
-      <c r="H70" s="13" t="s">
+      <c r="H70" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I70" s="20">
+      <c r="I70" s="17">
         <v>50</v>
       </c>
-      <c r="J70" s="20" t="s">
+      <c r="J70" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K70" s="1" t="str">
@@ -3960,13 +4025,13 @@
       </c>
     </row>
     <row r="71" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="35">
+      <c r="A71" s="32">
         <v>201211</v>
       </c>
       <c r="B71" s="1">
         <v>1</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="38" t="s">
         <v>56</v>
       </c>
       <c r="D71" s="1">
@@ -3975,19 +4040,19 @@
       <c r="E71" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F71" s="12">
+      <c r="F71" s="9">
         <v>201211</v>
       </c>
-      <c r="G71" s="13">
+      <c r="G71" s="10">
         <v>201211</v>
       </c>
-      <c r="H71" s="13" t="s">
+      <c r="H71" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="I71" s="20">
+      <c r="I71" s="17">
         <v>5</v>
       </c>
-      <c r="J71" s="20" t="s">
+      <c r="J71" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K71" s="1" t="str">
@@ -3996,13 +4061,13 @@
       </c>
     </row>
     <row r="72" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="35">
+      <c r="A72" s="32">
         <v>201212</v>
       </c>
       <c r="B72" s="1">
         <v>1</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="38" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="1">
@@ -4011,19 +4076,19 @@
       <c r="E72" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F72" s="12">
+      <c r="F72" s="9">
         <v>201212</v>
       </c>
-      <c r="G72" s="13">
+      <c r="G72" s="10">
         <v>201212</v>
       </c>
-      <c r="H72" s="13" t="s">
+      <c r="H72" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I72" s="20">
+      <c r="I72" s="17">
         <v>10</v>
       </c>
-      <c r="J72" s="20" t="s">
+      <c r="J72" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K72" s="1" t="str">
@@ -4032,13 +4097,13 @@
       </c>
     </row>
     <row r="73" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="35">
+      <c r="A73" s="32">
         <v>201213</v>
       </c>
       <c r="B73" s="1">
         <v>1</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="38" t="s">
         <v>57</v>
       </c>
       <c r="D73" s="1">
@@ -4047,19 +4112,19 @@
       <c r="E73" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F73" s="12">
+      <c r="F73" s="9">
         <v>201213</v>
       </c>
-      <c r="G73" s="13">
+      <c r="G73" s="10">
         <v>201213</v>
       </c>
-      <c r="H73" s="13" t="s">
+      <c r="H73" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="I73" s="20">
+      <c r="I73" s="17">
         <v>30</v>
       </c>
-      <c r="J73" s="20" t="s">
+      <c r="J73" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K73" s="1" t="str">
@@ -4068,32 +4133,32 @@
       </c>
     </row>
     <row r="74" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="37">
+      <c r="A74" s="34">
         <v>201214</v>
       </c>
       <c r="B74" s="1">
         <v>1</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C74" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="D74" s="20">
-        <v>1</v>
-      </c>
-      <c r="E74" s="29" t="s">
+      <c r="D74" s="17">
+        <v>1</v>
+      </c>
+      <c r="E74" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="F74" s="26"/>
-      <c r="G74" s="15">
+      <c r="F74" s="23"/>
+      <c r="G74" s="12">
         <v>201214</v>
       </c>
-      <c r="H74" s="13" t="s">
+      <c r="H74" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="I74" s="20">
-        <v>1</v>
-      </c>
-      <c r="J74" s="20" t="s">
+      <c r="I74" s="17">
+        <v>1</v>
+      </c>
+      <c r="J74" s="17" t="s">
         <v>197</v>
       </c>
       <c r="K74" s="1" t="str">
@@ -4102,32 +4167,32 @@
       </c>
     </row>
     <row r="75" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="36">
+      <c r="A75" s="33">
         <v>201215</v>
       </c>
       <c r="B75" s="1">
         <v>1</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="C75" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="D75" s="20">
-        <v>1</v>
-      </c>
-      <c r="E75" s="29" t="s">
+      <c r="D75" s="17">
+        <v>1</v>
+      </c>
+      <c r="E75" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="F75" s="26"/>
-      <c r="G75" s="13">
+      <c r="F75" s="23"/>
+      <c r="G75" s="10">
         <v>201215</v>
       </c>
-      <c r="H75" s="13" t="s">
+      <c r="H75" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="I75" s="20">
-        <v>1</v>
-      </c>
-      <c r="J75" s="20" t="s">
+      <c r="I75" s="17">
+        <v>1</v>
+      </c>
+      <c r="J75" s="17" t="s">
         <v>197</v>
       </c>
       <c r="K75" s="1" t="str">
@@ -4136,31 +4201,31 @@
       </c>
     </row>
     <row r="76" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="10">
+      <c r="A76" s="7">
         <v>201216</v>
       </c>
       <c r="B76" s="1">
         <v>1</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="39" t="s">
         <v>10</v>
       </c>
       <c r="D76" s="1">
         <v>1</v>
       </c>
-      <c r="E76" s="28" t="s">
+      <c r="E76" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="G76" s="13">
+      <c r="G76" s="10">
         <v>201216</v>
       </c>
-      <c r="H76" s="14" t="s">
+      <c r="H76" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I76" s="20">
-        <v>1</v>
-      </c>
-      <c r="J76" s="20" t="s">
+      <c r="I76" s="17">
+        <v>1</v>
+      </c>
+      <c r="J76" s="17" t="s">
         <v>205</v>
       </c>
       <c r="K76" s="1" t="str">
@@ -4169,31 +4234,31 @@
       </c>
     </row>
     <row r="77" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="10">
+      <c r="A77" s="7">
         <v>201217</v>
       </c>
       <c r="B77" s="1">
         <v>1</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="39" t="s">
         <v>58</v>
       </c>
       <c r="D77" s="2">
         <v>1</v>
       </c>
-      <c r="E77" s="28" t="s">
+      <c r="E77" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="G77" s="13">
+      <c r="G77" s="10">
         <v>201217</v>
       </c>
-      <c r="H77" s="16" t="s">
+      <c r="H77" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="I77" s="20">
-        <v>1</v>
-      </c>
-      <c r="J77" s="20" t="s">
+      <c r="I77" s="17">
+        <v>1</v>
+      </c>
+      <c r="J77" s="17" t="s">
         <v>196</v>
       </c>
       <c r="K77" s="1" t="str">
@@ -4202,13 +4267,13 @@
       </c>
     </row>
     <row r="78" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="10">
+      <c r="A78" s="7">
         <v>210101</v>
       </c>
       <c r="B78" s="1">
         <v>1</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="39" t="s">
         <v>59</v>
       </c>
       <c r="D78" s="2">
@@ -4217,16 +4282,16 @@
       <c r="E78" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="G78" s="13">
+      <c r="G78" s="10">
         <v>210101</v>
       </c>
-      <c r="H78" s="14" t="s">
+      <c r="H78" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="I78" s="20">
+      <c r="I78" s="17">
         <v>40</v>
       </c>
-      <c r="J78" s="20" t="s">
+      <c r="J78" s="17" t="s">
         <v>206</v>
       </c>
       <c r="K78" s="1" t="str">
@@ -4235,13 +4300,13 @@
       </c>
     </row>
     <row r="79" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="35">
+      <c r="A79" s="32">
         <v>210102</v>
       </c>
       <c r="B79" s="1">
         <v>1</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="38" t="s">
         <v>60</v>
       </c>
       <c r="D79" s="2">
@@ -4250,19 +4315,19 @@
       <c r="E79" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F79" s="12">
+      <c r="F79" s="9">
         <v>210102</v>
       </c>
-      <c r="G79" s="13">
+      <c r="G79" s="10">
         <v>210102</v>
       </c>
-      <c r="H79" s="13" t="s">
+      <c r="H79" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="I79" s="20">
+      <c r="I79" s="17">
         <v>30</v>
       </c>
-      <c r="J79" s="20" t="s">
+      <c r="J79" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K79" s="1" t="str">
@@ -4271,13 +4336,13 @@
       </c>
     </row>
     <row r="80" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="10">
+      <c r="A80" s="7">
         <v>210103</v>
       </c>
       <c r="B80" s="1">
         <v>1</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="39" t="s">
         <v>61</v>
       </c>
       <c r="D80" s="2">
@@ -4286,16 +4351,16 @@
       <c r="E80" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G80" s="13">
+      <c r="G80" s="10">
         <v>210103</v>
       </c>
-      <c r="H80" s="14" t="s">
+      <c r="H80" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="I80" s="20">
+      <c r="I80" s="17">
         <v>25</v>
       </c>
-      <c r="J80" s="20" t="s">
+      <c r="J80" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K80" s="1" t="str">
@@ -4304,13 +4369,13 @@
       </c>
     </row>
     <row r="81" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="10">
+      <c r="A81" s="7">
         <v>210104</v>
       </c>
       <c r="B81" s="1">
         <v>1</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="39" t="s">
         <v>62</v>
       </c>
       <c r="D81" s="1">
@@ -4319,16 +4384,16 @@
       <c r="E81" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G81" s="13">
+      <c r="G81" s="10">
         <v>210104</v>
       </c>
-      <c r="H81" s="14" t="s">
+      <c r="H81" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="I81" s="20">
+      <c r="I81" s="17">
         <v>50</v>
       </c>
-      <c r="J81" s="20" t="s">
+      <c r="J81" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K81" s="1" t="str">
@@ -4337,13 +4402,13 @@
       </c>
     </row>
     <row r="82" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="10">
+      <c r="A82" s="7">
         <v>210105</v>
       </c>
       <c r="B82" s="1">
         <v>1</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="39" t="s">
         <v>63</v>
       </c>
       <c r="D82" s="2">
@@ -4352,16 +4417,16 @@
       <c r="E82" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G82" s="13">
+      <c r="G82" s="10">
         <v>210105</v>
       </c>
-      <c r="H82" s="14" t="s">
+      <c r="H82" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="I82" s="20">
+      <c r="I82" s="17">
         <v>30</v>
       </c>
-      <c r="J82" s="20" t="s">
+      <c r="J82" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K82" s="1" t="str">
@@ -4370,29 +4435,29 @@
       </c>
     </row>
     <row r="83" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="10">
+      <c r="A83" s="7">
         <v>210106</v>
       </c>
       <c r="B83" s="1">
         <v>1</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="D83" s="24">
+      <c r="D83" s="21">
         <v>0</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G83" s="13">
+      <c r="G83" s="10">
         <v>210106</v>
       </c>
-      <c r="H83" s="38" t="s">
+      <c r="H83" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="I83" s="22"/>
-      <c r="J83" s="20" t="s">
+      <c r="I83" s="19"/>
+      <c r="J83" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K83" s="1" t="str">
@@ -4401,13 +4466,13 @@
       </c>
     </row>
     <row r="84" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="10">
+      <c r="A84" s="7">
         <v>210107</v>
       </c>
       <c r="B84" s="1">
         <v>1</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="39" t="s">
         <v>65</v>
       </c>
       <c r="D84" s="2">
@@ -4416,16 +4481,16 @@
       <c r="E84" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G84" s="13">
+      <c r="G84" s="10">
         <v>210107</v>
       </c>
-      <c r="H84" s="14" t="s">
+      <c r="H84" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="I84" s="20">
+      <c r="I84" s="17">
         <v>20</v>
       </c>
-      <c r="J84" s="20" t="s">
+      <c r="J84" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K84" s="1" t="str">
@@ -4434,13 +4499,13 @@
       </c>
     </row>
     <row r="85" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="10">
+      <c r="A85" s="7">
         <v>210108</v>
       </c>
       <c r="B85" s="1">
         <v>1</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="39" t="s">
         <v>66</v>
       </c>
       <c r="D85" s="2">
@@ -4449,16 +4514,16 @@
       <c r="E85" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G85" s="13">
+      <c r="G85" s="10">
         <v>210108</v>
       </c>
-      <c r="H85" s="14" t="s">
+      <c r="H85" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="I85" s="20">
+      <c r="I85" s="17">
         <v>30</v>
       </c>
-      <c r="J85" s="20" t="s">
+      <c r="J85" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K85" s="1" t="str">
@@ -4467,13 +4532,13 @@
       </c>
     </row>
     <row r="86" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="10">
+      <c r="A86" s="7">
         <v>210109</v>
       </c>
       <c r="B86" s="1">
         <v>1</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="39" t="s">
         <v>67</v>
       </c>
       <c r="D86" s="2">
@@ -4482,16 +4547,16 @@
       <c r="E86" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G86" s="13">
+      <c r="G86" s="10">
         <v>210109</v>
       </c>
-      <c r="H86" s="14" t="s">
+      <c r="H86" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="I86" s="20">
+      <c r="I86" s="17">
         <v>20</v>
       </c>
-      <c r="J86" s="20" t="s">
+      <c r="J86" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K86" s="1" t="str">
@@ -4500,13 +4565,13 @@
       </c>
     </row>
     <row r="87" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="10">
+      <c r="A87" s="7">
         <v>210110</v>
       </c>
       <c r="B87" s="1">
         <v>1</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="39" t="s">
         <v>68</v>
       </c>
       <c r="D87" s="1">
@@ -4515,16 +4580,16 @@
       <c r="E87" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G87" s="13">
+      <c r="G87" s="10">
         <v>210110</v>
       </c>
-      <c r="H87" s="13" t="s">
+      <c r="H87" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="I87" s="20">
+      <c r="I87" s="17">
         <v>25</v>
       </c>
-      <c r="J87" s="20" t="s">
+      <c r="J87" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K87" s="1" t="str">
@@ -4533,13 +4598,13 @@
       </c>
     </row>
     <row r="88" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="10">
+      <c r="A88" s="7">
         <v>210201</v>
       </c>
       <c r="B88" s="1">
         <v>1</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="39" t="s">
         <v>15</v>
       </c>
       <c r="D88" s="1">
@@ -4548,16 +4613,16 @@
       <c r="E88" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G88" s="13">
+      <c r="G88" s="10">
         <v>210201</v>
       </c>
-      <c r="H88" s="16" t="s">
+      <c r="H88" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I88" s="20">
+      <c r="I88" s="17">
         <v>50</v>
       </c>
-      <c r="J88" s="20" t="s">
+      <c r="J88" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K88" s="1" t="str">
@@ -4566,13 +4631,13 @@
       </c>
     </row>
     <row r="89" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="10">
+      <c r="A89" s="7">
         <v>210202</v>
       </c>
       <c r="B89" s="1">
         <v>1</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="39" t="s">
         <v>69</v>
       </c>
       <c r="D89" s="1">
@@ -4581,16 +4646,16 @@
       <c r="E89" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G89" s="13">
+      <c r="G89" s="10">
         <v>210202</v>
       </c>
-      <c r="H89" s="17" t="s">
+      <c r="H89" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="I89" s="20">
+      <c r="I89" s="17">
         <v>50</v>
       </c>
-      <c r="J89" s="20" t="s">
+      <c r="J89" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K89" s="1" t="str">
@@ -4599,13 +4664,13 @@
       </c>
     </row>
     <row r="90" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="10">
+      <c r="A90" s="7">
         <v>210203</v>
       </c>
       <c r="B90" s="1">
         <v>1</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="39" t="s">
         <v>70</v>
       </c>
       <c r="D90" s="1">
@@ -4614,16 +4679,16 @@
       <c r="E90" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G90" s="13">
+      <c r="G90" s="10">
         <v>210203</v>
       </c>
-      <c r="H90" s="16" t="s">
+      <c r="H90" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="I90" s="20">
+      <c r="I90" s="17">
         <v>50</v>
       </c>
-      <c r="J90" s="20" t="s">
+      <c r="J90" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K90" s="1" t="str">
@@ -4632,13 +4697,13 @@
       </c>
     </row>
     <row r="91" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="10">
+      <c r="A91" s="7">
         <v>210204</v>
       </c>
       <c r="B91" s="1">
         <v>1</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="39" t="s">
         <v>71</v>
       </c>
       <c r="D91" s="1">
@@ -4647,16 +4712,16 @@
       <c r="E91" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G91" s="13">
+      <c r="G91" s="10">
         <v>210204</v>
       </c>
-      <c r="H91" s="16" t="s">
+      <c r="H91" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="I91" s="20">
+      <c r="I91" s="17">
         <v>50</v>
       </c>
-      <c r="J91" s="20" t="s">
+      <c r="J91" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K91" s="1" t="str">
@@ -4665,13 +4730,13 @@
       </c>
     </row>
     <row r="92" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="10">
+      <c r="A92" s="7">
         <v>210205</v>
       </c>
       <c r="B92" s="1">
         <v>1</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="39" t="s">
         <v>72</v>
       </c>
       <c r="D92" s="1">
@@ -4680,16 +4745,16 @@
       <c r="E92" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G92" s="13">
+      <c r="G92" s="10">
         <v>210205</v>
       </c>
-      <c r="H92" s="17" t="s">
+      <c r="H92" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="I92" s="20">
+      <c r="I92" s="17">
         <v>50</v>
       </c>
-      <c r="J92" s="20" t="s">
+      <c r="J92" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K92" s="1" t="str">
@@ -4698,29 +4763,29 @@
       </c>
     </row>
     <row r="93" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="36">
+      <c r="A93" s="33">
         <v>210301</v>
       </c>
       <c r="B93" s="1">
         <v>1</v>
       </c>
-      <c r="C93" s="13" t="s">
+      <c r="C93" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="D93" s="24">
+      <c r="D93" s="21">
         <v>0</v>
       </c>
       <c r="E93" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G93" s="13">
+      <c r="G93" s="10">
         <v>210301</v>
       </c>
-      <c r="H93" s="13" t="s">
+      <c r="H93" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="I93" s="22"/>
-      <c r="J93" s="20" t="s">
+      <c r="I93" s="19"/>
+      <c r="J93" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K93" s="1" t="str">
@@ -4729,29 +4794,29 @@
       </c>
     </row>
     <row r="94" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="36">
+      <c r="A94" s="33">
         <v>210302</v>
       </c>
       <c r="B94" s="1">
         <v>1</v>
       </c>
-      <c r="C94" s="13" t="s">
+      <c r="C94" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D94" s="24">
+      <c r="D94" s="21">
         <v>0</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G94" s="13">
+      <c r="G94" s="10">
         <v>210302</v>
       </c>
-      <c r="H94" s="13" t="s">
+      <c r="H94" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="I94" s="22"/>
-      <c r="J94" s="20" t="s">
+      <c r="I94" s="19"/>
+      <c r="J94" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K94" s="1" t="str">
@@ -4760,29 +4825,29 @@
       </c>
     </row>
     <row r="95" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="10">
+      <c r="A95" s="7">
         <v>210303</v>
       </c>
       <c r="B95" s="1">
         <v>1</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="D95" s="24">
+      <c r="D95" s="21">
         <v>0</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G95" s="13">
+      <c r="G95" s="10">
         <v>210303</v>
       </c>
-      <c r="H95" s="13" t="s">
+      <c r="H95" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="I95" s="23"/>
-      <c r="J95" s="20" t="s">
+      <c r="I95" s="20"/>
+      <c r="J95" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K95" s="1" t="str">
@@ -4791,29 +4856,29 @@
       </c>
     </row>
     <row r="96" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="36">
+      <c r="A96" s="33">
         <v>210304</v>
       </c>
       <c r="B96" s="1">
         <v>1</v>
       </c>
-      <c r="C96" s="13" t="s">
+      <c r="C96" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="D96" s="24">
+      <c r="D96" s="21">
         <v>0</v>
       </c>
       <c r="E96" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G96" s="13">
+      <c r="G96" s="10">
         <v>210304</v>
       </c>
-      <c r="H96" s="13" t="s">
+      <c r="H96" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="I96" s="22"/>
-      <c r="J96" s="20" t="s">
+      <c r="I96" s="19"/>
+      <c r="J96" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K96" s="1" t="str">
@@ -4822,13 +4887,13 @@
       </c>
     </row>
     <row r="97" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="10">
+      <c r="A97" s="7">
         <v>210305</v>
       </c>
       <c r="B97" s="1">
         <v>1</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="39" t="s">
         <v>74</v>
       </c>
       <c r="D97" s="1">
@@ -4837,16 +4902,16 @@
       <c r="E97" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G97" s="13">
+      <c r="G97" s="10">
         <v>210305</v>
       </c>
-      <c r="H97" s="13" t="s">
+      <c r="H97" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="I97" s="20">
+      <c r="I97" s="17">
         <v>30</v>
       </c>
-      <c r="J97" s="20" t="s">
+      <c r="J97" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K97" s="1" t="str">
@@ -4855,29 +4920,29 @@
       </c>
     </row>
     <row r="98" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="36">
+      <c r="A98" s="33">
         <v>210306</v>
       </c>
       <c r="B98" s="1">
         <v>1</v>
       </c>
-      <c r="C98" s="17" t="s">
+      <c r="C98" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="D98" s="24">
+      <c r="D98" s="21">
         <v>0</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G98" s="13">
+      <c r="G98" s="10">
         <v>210306</v>
       </c>
-      <c r="H98" s="17" t="s">
+      <c r="H98" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="I98" s="22"/>
-      <c r="J98" s="20" t="s">
+      <c r="I98" s="19"/>
+      <c r="J98" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K98" s="1" t="str">
@@ -4886,31 +4951,31 @@
       </c>
     </row>
     <row r="99" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="36">
+      <c r="A99" s="33">
         <v>210307</v>
       </c>
       <c r="B99" s="1">
         <v>1</v>
       </c>
-      <c r="C99" s="17" t="s">
+      <c r="C99" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="D99" s="20">
+      <c r="D99" s="17">
         <v>40</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G99" s="13">
+      <c r="G99" s="10">
         <v>210307</v>
       </c>
-      <c r="H99" s="17" t="s">
+      <c r="H99" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="I99" s="20">
+      <c r="I99" s="17">
         <v>40</v>
       </c>
-      <c r="J99" s="20" t="s">
+      <c r="J99" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K99" s="1" t="str">
@@ -4919,29 +4984,29 @@
       </c>
     </row>
     <row r="100" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="36">
+      <c r="A100" s="33">
         <v>210308</v>
       </c>
       <c r="B100" s="1">
         <v>1</v>
       </c>
-      <c r="C100" s="17" t="s">
+      <c r="C100" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="D100" s="24">
+      <c r="D100" s="21">
         <v>0</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G100" s="13">
+      <c r="G100" s="10">
         <v>210308</v>
       </c>
-      <c r="H100" s="17" t="s">
+      <c r="H100" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="I100" s="22"/>
-      <c r="J100" s="20" t="s">
+      <c r="I100" s="19"/>
+      <c r="J100" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K100" s="1" t="str">
@@ -4950,29 +5015,29 @@
       </c>
     </row>
     <row r="101" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="36">
+      <c r="A101" s="33">
         <v>210309</v>
       </c>
       <c r="B101" s="1">
         <v>1</v>
       </c>
-      <c r="C101" s="17" t="s">
+      <c r="C101" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="D101" s="24">
+      <c r="D101" s="21">
         <v>0</v>
       </c>
       <c r="E101" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G101" s="13">
+      <c r="G101" s="10">
         <v>210309</v>
       </c>
-      <c r="H101" s="17" t="s">
+      <c r="H101" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="I101" s="22"/>
-      <c r="J101" s="20" t="s">
+      <c r="I101" s="19"/>
+      <c r="J101" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K101" s="1" t="str">
@@ -4981,29 +5046,29 @@
       </c>
     </row>
     <row r="102" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="36">
+      <c r="A102" s="33">
         <v>210310</v>
       </c>
       <c r="B102" s="1">
         <v>1</v>
       </c>
-      <c r="C102" s="13" t="s">
+      <c r="C102" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D102" s="24">
+      <c r="D102" s="21">
         <v>0</v>
       </c>
       <c r="E102" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G102" s="13">
+      <c r="G102" s="10">
         <v>210310</v>
       </c>
-      <c r="H102" s="13" t="s">
+      <c r="H102" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="I102" s="22"/>
-      <c r="J102" s="20" t="s">
+      <c r="I102" s="19"/>
+      <c r="J102" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K102" s="1" t="str">
@@ -5012,13 +5077,13 @@
       </c>
     </row>
     <row r="103" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="10">
+      <c r="A103" s="7">
         <v>210311</v>
       </c>
       <c r="B103" s="1">
         <v>1</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="39" t="s">
         <v>75</v>
       </c>
       <c r="D103" s="1">
@@ -5027,16 +5092,16 @@
       <c r="E103" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G103" s="13">
+      <c r="G103" s="10">
         <v>210311</v>
       </c>
-      <c r="H103" s="13" t="s">
+      <c r="H103" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="I103" s="20">
+      <c r="I103" s="17">
         <v>30</v>
       </c>
-      <c r="J103" s="20" t="s">
+      <c r="J103" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K103" s="1" t="str">
@@ -5045,13 +5110,13 @@
       </c>
     </row>
     <row r="104" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="10">
+      <c r="A104" s="7">
         <v>210312</v>
       </c>
       <c r="B104" s="1">
         <v>1</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="39" t="s">
         <v>76</v>
       </c>
       <c r="D104" s="1">
@@ -5060,16 +5125,16 @@
       <c r="E104" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G104" s="13">
+      <c r="G104" s="10">
         <v>210312</v>
       </c>
-      <c r="H104" s="14" t="s">
+      <c r="H104" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="I104" s="20">
+      <c r="I104" s="17">
         <v>40</v>
       </c>
-      <c r="J104" s="20" t="s">
+      <c r="J104" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K104" s="1" t="str">
@@ -5078,13 +5143,13 @@
       </c>
     </row>
     <row r="105" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="10">
+      <c r="A105" s="7">
         <v>210313</v>
       </c>
       <c r="B105" s="1">
         <v>1</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="39" t="s">
         <v>77</v>
       </c>
       <c r="D105" s="1">
@@ -5093,16 +5158,16 @@
       <c r="E105" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G105" s="13">
+      <c r="G105" s="10">
         <v>210313</v>
       </c>
-      <c r="H105" s="14" t="s">
+      <c r="H105" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="I105" s="20">
+      <c r="I105" s="17">
         <v>25</v>
       </c>
-      <c r="J105" s="20" t="s">
+      <c r="J105" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K105" s="1" t="str">
@@ -5111,13 +5176,13 @@
       </c>
     </row>
     <row r="106" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="10">
+      <c r="A106" s="7">
         <v>210314</v>
       </c>
       <c r="B106" s="1">
         <v>1</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="39" t="s">
         <v>78</v>
       </c>
       <c r="D106" s="1">
@@ -5126,16 +5191,16 @@
       <c r="E106" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G106" s="13">
+      <c r="G106" s="10">
         <v>210314</v>
       </c>
-      <c r="H106" s="14" t="s">
+      <c r="H106" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="I106" s="20">
+      <c r="I106" s="17">
         <v>25</v>
       </c>
-      <c r="J106" s="20" t="s">
+      <c r="J106" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K106" s="1" t="str">
@@ -5144,13 +5209,13 @@
       </c>
     </row>
     <row r="107" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="10">
+      <c r="A107" s="7">
         <v>210315</v>
       </c>
       <c r="B107" s="1">
         <v>1</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="39" t="s">
         <v>79</v>
       </c>
       <c r="D107" s="1">
@@ -5159,16 +5224,16 @@
       <c r="E107" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G107" s="13">
+      <c r="G107" s="10">
         <v>210315</v>
       </c>
-      <c r="H107" s="13" t="s">
+      <c r="H107" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="I107" s="20">
+      <c r="I107" s="17">
         <v>50</v>
       </c>
-      <c r="J107" s="20" t="s">
+      <c r="J107" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K107" s="1" t="str">
@@ -5177,29 +5242,29 @@
       </c>
     </row>
     <row r="108" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="36">
+      <c r="A108" s="33">
         <v>210316</v>
       </c>
       <c r="B108" s="1">
         <v>1</v>
       </c>
-      <c r="C108" s="17" t="s">
+      <c r="C108" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="D108" s="24">
+      <c r="D108" s="21">
         <v>0</v>
       </c>
       <c r="E108" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G108" s="13">
+      <c r="G108" s="10">
         <v>210316</v>
       </c>
-      <c r="H108" s="17" t="s">
+      <c r="H108" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="I108" s="22"/>
-      <c r="J108" s="20" t="s">
+      <c r="I108" s="19"/>
+      <c r="J108" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K108" s="1" t="str">
@@ -5208,29 +5273,29 @@
       </c>
     </row>
     <row r="109" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="36">
+      <c r="A109" s="33">
         <v>210317</v>
       </c>
       <c r="B109" s="1">
         <v>1</v>
       </c>
-      <c r="C109" s="17" t="s">
+      <c r="C109" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="D109" s="24">
+      <c r="D109" s="21">
         <v>0</v>
       </c>
       <c r="E109" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G109" s="13">
+      <c r="G109" s="10">
         <v>210317</v>
       </c>
-      <c r="H109" s="17" t="s">
+      <c r="H109" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="I109" s="22"/>
-      <c r="J109" s="20" t="s">
+      <c r="I109" s="19"/>
+      <c r="J109" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K109" s="1" t="str">
@@ -5239,29 +5304,29 @@
       </c>
     </row>
     <row r="110" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="36">
+      <c r="A110" s="33">
         <v>210318</v>
       </c>
       <c r="B110" s="1">
         <v>1</v>
       </c>
-      <c r="C110" s="17" t="s">
+      <c r="C110" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="D110" s="24">
+      <c r="D110" s="21">
         <v>0</v>
       </c>
       <c r="E110" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G110" s="13">
+      <c r="G110" s="10">
         <v>210318</v>
       </c>
-      <c r="H110" s="17" t="s">
+      <c r="H110" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="I110" s="25"/>
-      <c r="J110" s="20" t="s">
+      <c r="I110" s="22"/>
+      <c r="J110" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K110" s="1" t="str">
@@ -5270,29 +5335,29 @@
       </c>
     </row>
     <row r="111" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="36">
+      <c r="A111" s="33">
         <v>210319</v>
       </c>
       <c r="B111" s="1">
         <v>1</v>
       </c>
-      <c r="C111" s="17" t="s">
+      <c r="C111" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="D111" s="24">
+      <c r="D111" s="21">
         <v>0</v>
       </c>
       <c r="E111" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G111" s="13">
+      <c r="G111" s="10">
         <v>210319</v>
       </c>
-      <c r="H111" s="17" t="s">
+      <c r="H111" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="I111" s="22"/>
-      <c r="J111" s="20" t="s">
+      <c r="I111" s="19"/>
+      <c r="J111" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K111" s="1" t="str">
@@ -5301,29 +5366,29 @@
       </c>
     </row>
     <row r="112" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="36">
+      <c r="A112" s="33">
         <v>210320</v>
       </c>
       <c r="B112" s="1">
         <v>1</v>
       </c>
-      <c r="C112" s="13" t="s">
+      <c r="C112" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="D112" s="24">
+      <c r="D112" s="21">
         <v>0</v>
       </c>
       <c r="E112" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G112" s="13">
+      <c r="G112" s="10">
         <v>210320</v>
       </c>
-      <c r="H112" s="13" t="s">
+      <c r="H112" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="I112" s="22"/>
-      <c r="J112" s="20" t="s">
+      <c r="I112" s="19"/>
+      <c r="J112" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K112" s="1" t="str">
@@ -5331,14 +5396,14 @@
         <v>同</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="10">
+    <row r="113" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="7">
         <v>210321</v>
       </c>
       <c r="B113" s="1">
         <v>1</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="39" t="s">
         <v>80</v>
       </c>
       <c r="D113" s="1">
@@ -5347,16 +5412,16 @@
       <c r="E113" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G113" s="13">
+      <c r="G113" s="10">
         <v>210321</v>
       </c>
-      <c r="H113" s="13" t="s">
+      <c r="H113" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="I113" s="20">
+      <c r="I113" s="17">
         <v>30</v>
       </c>
-      <c r="J113" s="20" t="s">
+      <c r="J113" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K113" s="1" t="str">
@@ -5364,14 +5429,14 @@
         <v>同</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="10">
+    <row r="114" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="7">
         <v>210322</v>
       </c>
       <c r="B114" s="1">
         <v>1</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="39" t="s">
         <v>81</v>
       </c>
       <c r="D114" s="1">
@@ -5380,16 +5445,16 @@
       <c r="E114" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G114" s="13">
+      <c r="G114" s="10">
         <v>210322</v>
       </c>
-      <c r="H114" s="14" t="s">
+      <c r="H114" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="I114" s="21">
+      <c r="I114" s="18">
         <v>25</v>
       </c>
-      <c r="J114" s="20" t="s">
+      <c r="J114" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K114" s="1" t="str">
@@ -5397,32 +5462,32 @@
         <v>同</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="36">
+    <row r="115" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="33">
         <v>210323</v>
       </c>
       <c r="B115" s="1">
         <v>1</v>
       </c>
-      <c r="C115" s="13" t="s">
+      <c r="C115" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="D115" s="20">
+      <c r="D115" s="17">
         <v>40</v>
       </c>
       <c r="E115" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G115" s="13">
+      <c r="G115" s="10">
         <v>210323</v>
       </c>
-      <c r="H115" s="13" t="s">
+      <c r="H115" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="I115" s="20">
+      <c r="I115" s="17">
         <v>40</v>
       </c>
-      <c r="J115" s="20" t="s">
+      <c r="J115" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K115" s="1" t="str">
@@ -5430,30 +5495,30 @@
         <v>同</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="36">
+    <row r="116" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="33">
         <v>210324</v>
       </c>
       <c r="B116" s="1">
         <v>1</v>
       </c>
-      <c r="C116" s="13" t="s">
+      <c r="C116" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="D116" s="22">
+      <c r="D116" s="19">
         <v>0</v>
       </c>
       <c r="E116" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G116" s="13">
+      <c r="G116" s="10">
         <v>210324</v>
       </c>
-      <c r="H116" s="13" t="s">
+      <c r="H116" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="I116" s="22"/>
-      <c r="J116" s="20" t="s">
+      <c r="I116" s="19"/>
+      <c r="J116" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K116" s="1" t="str">
@@ -5461,14 +5526,14 @@
         <v>同</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="10">
+    <row r="117" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="7">
         <v>210325</v>
       </c>
       <c r="B117" s="1">
         <v>1</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="39" t="s">
         <v>82</v>
       </c>
       <c r="D117" s="1">
@@ -5477,16 +5542,16 @@
       <c r="E117" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G117" s="13">
+      <c r="G117" s="10">
         <v>210325</v>
       </c>
-      <c r="H117" s="13" t="s">
+      <c r="H117" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="I117" s="20">
+      <c r="I117" s="17">
         <v>40</v>
       </c>
-      <c r="J117" s="20" t="s">
+      <c r="J117" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K117" s="1" t="str">
@@ -5494,14 +5559,14 @@
         <v>同</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="10">
+    <row r="118" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="7">
         <v>210326</v>
       </c>
       <c r="B118" s="1">
         <v>1</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="39" t="s">
         <v>83</v>
       </c>
       <c r="D118" s="1">
@@ -5510,16 +5575,16 @@
       <c r="E118" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G118" s="13">
+      <c r="G118" s="10">
         <v>210326</v>
       </c>
-      <c r="H118" s="13" t="s">
+      <c r="H118" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I118" s="20">
+      <c r="I118" s="17">
         <v>25</v>
       </c>
-      <c r="J118" s="20" t="s">
+      <c r="J118" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K118" s="1" t="str">
@@ -5527,32 +5592,32 @@
         <v>同</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="36">
+    <row r="119" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="33">
         <v>210327</v>
       </c>
       <c r="B119" s="1">
         <v>1</v>
       </c>
-      <c r="C119" s="13" t="s">
+      <c r="C119" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="D119" s="20">
+      <c r="D119" s="17">
         <v>20</v>
       </c>
       <c r="E119" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G119" s="13">
+      <c r="G119" s="10">
         <v>210327</v>
       </c>
-      <c r="H119" s="13" t="s">
+      <c r="H119" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I119" s="20">
+      <c r="I119" s="17">
         <v>20</v>
       </c>
-      <c r="J119" s="20" t="s">
+      <c r="J119" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K119" s="1" t="str">
@@ -5560,32 +5625,32 @@
         <v>同</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="36">
+    <row r="120" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="33">
         <v>210328</v>
       </c>
       <c r="B120" s="1">
         <v>1</v>
       </c>
-      <c r="C120" s="13" t="s">
+      <c r="C120" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="D120" s="20">
+      <c r="D120" s="17">
         <v>30</v>
       </c>
       <c r="E120" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G120" s="13">
+      <c r="G120" s="10">
         <v>210328</v>
       </c>
-      <c r="H120" s="13" t="s">
+      <c r="H120" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="I120" s="20">
+      <c r="I120" s="17">
         <v>30</v>
       </c>
-      <c r="J120" s="20" t="s">
+      <c r="J120" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K120" s="1" t="str">
@@ -5593,14 +5658,14 @@
         <v>同</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="10">
+    <row r="121" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="7">
         <v>210401</v>
       </c>
       <c r="B121" s="1">
         <v>1</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="39" t="s">
         <v>84</v>
       </c>
       <c r="D121" s="1">
@@ -5609,16 +5674,16 @@
       <c r="E121" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G121" s="13">
+      <c r="G121" s="10">
         <v>210401</v>
       </c>
-      <c r="H121" s="13" t="s">
+      <c r="H121" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="I121" s="20">
-        <v>1</v>
-      </c>
-      <c r="J121" s="20" t="s">
+      <c r="I121" s="17">
+        <v>1</v>
+      </c>
+      <c r="J121" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K121" s="1" t="str">
@@ -5626,32 +5691,32 @@
         <v>同</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="10">
+    <row r="122" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="7">
         <v>210402</v>
       </c>
       <c r="B122" s="1">
         <v>1</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="39" t="s">
         <v>16</v>
       </c>
       <c r="D122" s="1">
         <v>1</v>
       </c>
-      <c r="E122" s="27" t="s">
+      <c r="E122" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="G122" s="13">
+      <c r="G122" s="10">
         <v>210402</v>
       </c>
-      <c r="H122" s="13" t="s">
+      <c r="H122" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I122" s="20">
-        <v>1</v>
-      </c>
-      <c r="J122" s="20" t="s">
+      <c r="I122" s="17">
+        <v>1</v>
+      </c>
+      <c r="J122" s="17" t="s">
         <v>207</v>
       </c>
       <c r="K122" s="1" t="str">
@@ -5659,14 +5724,14 @@
         <v>同</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="10">
+    <row r="123" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="7">
         <v>210403</v>
       </c>
       <c r="B123" s="1">
         <v>1</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="39" t="s">
         <v>85</v>
       </c>
       <c r="D123" s="1">
@@ -5675,31 +5740,37 @@
       <c r="E123" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G123" s="13">
+      <c r="G123" s="10">
         <v>210403</v>
       </c>
-      <c r="H123" s="14" t="s">
+      <c r="H123" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="I123" s="20">
+      <c r="I123" s="17">
         <v>30</v>
       </c>
-      <c r="J123" s="20" t="s">
+      <c r="J123" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K123" s="1" t="str">
         <f t="shared" si="1"/>
         <v>同</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="10">
+      <c r="L123" s="36">
         <v>220101</v>
       </c>
+      <c r="M123" s="40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="36">
+        <v>220101</v>
+      </c>
       <c r="B124" s="1">
         <v>1</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="40" t="s">
         <v>86</v>
       </c>
       <c r="D124" s="1">
@@ -5708,31 +5779,37 @@
       <c r="E124" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G124" s="13">
+      <c r="G124" s="10">
         <v>220101</v>
       </c>
-      <c r="H124" s="18" t="s">
+      <c r="H124" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="I124" s="20">
+      <c r="I124" s="17">
         <v>50</v>
       </c>
-      <c r="J124" s="20" t="s">
+      <c r="J124" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K124" s="1" t="str">
         <f t="shared" si="1"/>
         <v>同</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="10">
+      <c r="L124" s="36">
         <v>220102</v>
       </c>
+      <c r="M124" s="40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="36">
+        <v>220102</v>
+      </c>
       <c r="B125" s="1">
         <v>1</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="40" t="s">
         <v>87</v>
       </c>
       <c r="D125" s="1">
@@ -5741,31 +5818,32 @@
       <c r="E125" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G125" s="13">
+      <c r="G125" s="10">
         <v>220102</v>
       </c>
-      <c r="H125" s="18" t="s">
+      <c r="H125" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="I125" s="20">
+      <c r="I125" s="17">
         <v>30</v>
       </c>
-      <c r="J125" s="20" t="s">
+      <c r="J125" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K125" s="1" t="str">
         <f t="shared" si="1"/>
         <v>同</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="10">
+      <c r="L125" s="7"/>
+    </row>
+    <row r="126" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="7">
         <v>220103</v>
       </c>
       <c r="B126" s="1">
         <v>1</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="39" t="s">
         <v>88</v>
       </c>
       <c r="D126" s="1">
@@ -5774,31 +5852,37 @@
       <c r="E126" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G126" s="13">
+      <c r="G126" s="10">
         <v>220103</v>
       </c>
-      <c r="H126" s="18" t="s">
+      <c r="H126" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="I126" s="20">
+      <c r="I126" s="17">
         <v>10</v>
       </c>
-      <c r="J126" s="20" t="s">
+      <c r="J126" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K126" s="1" t="str">
         <f t="shared" si="1"/>
         <v>同</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="10">
+      <c r="L126" s="36">
         <v>220104</v>
       </c>
+      <c r="M126" s="40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="36">
+        <v>220104</v>
+      </c>
       <c r="B127" s="1">
         <v>1</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="40" t="s">
         <v>89</v>
       </c>
       <c r="D127" s="1">
@@ -5807,31 +5891,37 @@
       <c r="E127" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G127" s="13">
+      <c r="G127" s="10">
         <v>220104</v>
       </c>
-      <c r="H127" s="18" t="s">
+      <c r="H127" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="I127" s="20">
+      <c r="I127" s="17">
         <v>50</v>
       </c>
-      <c r="J127" s="20" t="s">
+      <c r="J127" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K127" s="1" t="str">
         <f t="shared" si="1"/>
         <v>同</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="10">
+      <c r="L127" s="36">
         <v>220105</v>
       </c>
+      <c r="M127" s="40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="36">
+        <v>220105</v>
+      </c>
       <c r="B128" s="1">
         <v>1</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="40" t="s">
         <v>90</v>
       </c>
       <c r="D128" s="1">
@@ -5840,31 +5930,37 @@
       <c r="E128" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G128" s="13">
+      <c r="G128" s="10">
         <v>220105</v>
       </c>
-      <c r="H128" s="18" t="s">
+      <c r="H128" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="I128" s="20">
+      <c r="I128" s="17">
         <v>25</v>
       </c>
-      <c r="J128" s="20" t="s">
+      <c r="J128" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K128" s="1" t="str">
         <f t="shared" si="1"/>
         <v>同</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="10">
+      <c r="L128" s="36">
         <v>220106</v>
       </c>
+      <c r="M128" s="40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="36">
+        <v>220106</v>
+      </c>
       <c r="B129" s="1">
         <v>1</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="40" t="s">
         <v>91</v>
       </c>
       <c r="D129" s="1">
@@ -5873,31 +5969,37 @@
       <c r="E129" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G129" s="13">
+      <c r="G129" s="10">
         <v>220106</v>
       </c>
-      <c r="H129" s="18" t="s">
+      <c r="H129" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="I129" s="20">
+      <c r="I129" s="17">
         <v>50</v>
       </c>
-      <c r="J129" s="20" t="s">
+      <c r="J129" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K129" s="1" t="str">
         <f t="shared" si="1"/>
         <v>同</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="10">
+      <c r="L129" s="36">
         <v>220107</v>
       </c>
+      <c r="M129" s="40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="36">
+        <v>220107</v>
+      </c>
       <c r="B130" s="1">
         <v>1</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="40" t="s">
         <v>92</v>
       </c>
       <c r="D130" s="1">
@@ -5906,31 +6008,37 @@
       <c r="E130" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G130" s="13">
+      <c r="G130" s="10">
         <v>220107</v>
       </c>
-      <c r="H130" s="18" t="s">
+      <c r="H130" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="I130" s="20">
+      <c r="I130" s="17">
         <v>50</v>
       </c>
-      <c r="J130" s="20" t="s">
+      <c r="J130" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K130" s="1" t="str">
         <f t="shared" si="1"/>
         <v>同</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="10">
+      <c r="L130" s="36">
         <v>220108</v>
       </c>
+      <c r="M130" s="40" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="36">
+        <v>220108</v>
+      </c>
       <c r="B131" s="1">
         <v>1</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="40" t="s">
         <v>93</v>
       </c>
       <c r="D131" s="1">
@@ -5939,31 +6047,37 @@
       <c r="E131" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G131" s="13">
+      <c r="G131" s="10">
         <v>220108</v>
       </c>
-      <c r="H131" s="18" t="s">
+      <c r="H131" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="I131" s="20">
+      <c r="I131" s="17">
         <v>30</v>
       </c>
-      <c r="J131" s="20" t="s">
+      <c r="J131" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K131" s="1" t="str">
         <f t="shared" ref="K131:K187" si="2">IF(D131=I131,"同","不同")</f>
         <v>同</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="10">
+      <c r="L131" s="36">
         <v>220109</v>
       </c>
+      <c r="M131" s="40" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="36">
+        <v>220109</v>
+      </c>
       <c r="B132" s="1">
         <v>1</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="40" t="s">
         <v>94</v>
       </c>
       <c r="D132" s="1">
@@ -5972,31 +6086,37 @@
       <c r="E132" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G132" s="13">
+      <c r="G132" s="10">
         <v>220109</v>
       </c>
-      <c r="H132" s="18" t="s">
+      <c r="H132" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="I132" s="20">
+      <c r="I132" s="17">
         <v>25</v>
       </c>
-      <c r="J132" s="20" t="s">
+      <c r="J132" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K132" s="1" t="str">
         <f t="shared" si="2"/>
         <v>同</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="10">
+      <c r="L132" s="36">
         <v>220110</v>
       </c>
+      <c r="M132" s="40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="36">
+        <v>220110</v>
+      </c>
       <c r="B133" s="1">
         <v>1</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="40" t="s">
         <v>95</v>
       </c>
       <c r="D133" s="1">
@@ -6005,31 +6125,37 @@
       <c r="E133" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G133" s="13">
+      <c r="G133" s="10">
         <v>220110</v>
       </c>
-      <c r="H133" s="18" t="s">
+      <c r="H133" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="I133" s="20">
+      <c r="I133" s="17">
         <v>40</v>
       </c>
-      <c r="J133" s="20" t="s">
+      <c r="J133" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K133" s="1" t="str">
         <f t="shared" si="2"/>
         <v>同</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="10">
+      <c r="L133" s="36">
         <v>220111</v>
       </c>
+      <c r="M133" s="40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="36">
+        <v>220111</v>
+      </c>
       <c r="B134" s="1">
         <v>1</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="40" t="s">
         <v>17</v>
       </c>
       <c r="D134" s="1">
@@ -6038,31 +6164,37 @@
       <c r="E134" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G134" s="13">
+      <c r="G134" s="10">
         <v>220111</v>
       </c>
-      <c r="H134" s="18" t="s">
+      <c r="H134" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I134" s="20">
+      <c r="I134" s="17">
         <v>50</v>
       </c>
-      <c r="J134" s="20" t="s">
+      <c r="J134" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K134" s="1" t="str">
         <f t="shared" si="2"/>
         <v>同</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="10">
+      <c r="L134" s="36">
         <v>220112</v>
       </c>
+      <c r="M134" s="40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="36">
+        <v>220112</v>
+      </c>
       <c r="B135" s="1">
         <v>1</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="40" t="s">
         <v>96</v>
       </c>
       <c r="D135" s="1">
@@ -6071,31 +6203,37 @@
       <c r="E135" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G135" s="13">
+      <c r="G135" s="10">
         <v>220112</v>
       </c>
-      <c r="H135" s="18" t="s">
+      <c r="H135" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="I135" s="20">
+      <c r="I135" s="17">
         <v>30</v>
       </c>
-      <c r="J135" s="20" t="s">
+      <c r="J135" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K135" s="1" t="str">
         <f t="shared" si="2"/>
         <v>同</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="10">
+      <c r="L135" s="36">
         <v>220113</v>
       </c>
+      <c r="M135" s="40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="36">
+        <v>220113</v>
+      </c>
       <c r="B136" s="1">
         <v>1</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="40" t="s">
         <v>97</v>
       </c>
       <c r="D136" s="1">
@@ -6104,31 +6242,37 @@
       <c r="E136" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G136" s="13">
+      <c r="G136" s="10">
         <v>220113</v>
       </c>
-      <c r="H136" s="18" t="s">
+      <c r="H136" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="I136" s="20">
+      <c r="I136" s="17">
         <v>88</v>
       </c>
-      <c r="J136" s="20" t="s">
+      <c r="J136" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K136" s="1" t="str">
         <f t="shared" si="2"/>
         <v>同</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="10">
+      <c r="L136" s="36">
         <v>220114</v>
       </c>
+      <c r="M136" s="40" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="36">
+        <v>220114</v>
+      </c>
       <c r="B137" s="1">
         <v>1</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="40" t="s">
         <v>98</v>
       </c>
       <c r="D137" s="1">
@@ -6137,31 +6281,37 @@
       <c r="E137" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G137" s="13">
+      <c r="G137" s="10">
         <v>220114</v>
       </c>
-      <c r="H137" s="18" t="s">
+      <c r="H137" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="I137" s="20">
+      <c r="I137" s="17">
         <v>9</v>
       </c>
-      <c r="J137" s="20" t="s">
+      <c r="J137" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K137" s="1" t="str">
         <f t="shared" si="2"/>
         <v>同</v>
       </c>
-    </row>
-    <row r="138" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="10">
+      <c r="L137" s="36">
         <v>220115</v>
       </c>
+      <c r="M137" s="40" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="36">
+        <v>220115</v>
+      </c>
       <c r="B138" s="1">
         <v>1</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="40" t="s">
         <v>99</v>
       </c>
       <c r="D138" s="1">
@@ -6170,31 +6320,37 @@
       <c r="E138" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G138" s="13">
+      <c r="G138" s="10">
         <v>220115</v>
       </c>
-      <c r="H138" s="18" t="s">
+      <c r="H138" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="I138" s="20">
+      <c r="I138" s="17">
         <v>30</v>
       </c>
-      <c r="J138" s="20" t="s">
+      <c r="J138" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K138" s="1" t="str">
         <f t="shared" si="2"/>
         <v>同</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="10">
+      <c r="L138" s="36">
         <v>220116</v>
       </c>
+      <c r="M138" s="40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="36">
+        <v>220116</v>
+      </c>
       <c r="B139" s="1">
         <v>1</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="40" t="s">
         <v>18</v>
       </c>
       <c r="D139" s="1">
@@ -6203,31 +6359,37 @@
       <c r="E139" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G139" s="13">
+      <c r="G139" s="10">
         <v>220116</v>
       </c>
-      <c r="H139" s="18" t="s">
+      <c r="H139" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="I139" s="20">
+      <c r="I139" s="17">
         <v>50</v>
       </c>
-      <c r="J139" s="20" t="s">
+      <c r="J139" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K139" s="1" t="str">
         <f t="shared" si="2"/>
         <v>同</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="10">
+      <c r="L139" s="36">
         <v>220117</v>
       </c>
+      <c r="M139" s="40" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="36">
+        <v>220117</v>
+      </c>
       <c r="B140" s="1">
         <v>1</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="40" t="s">
         <v>100</v>
       </c>
       <c r="D140" s="2">
@@ -6236,31 +6398,37 @@
       <c r="E140" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G140" s="13">
+      <c r="G140" s="10">
         <v>220117</v>
       </c>
-      <c r="H140" s="18" t="s">
+      <c r="H140" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="I140" s="20">
+      <c r="I140" s="17">
         <v>25</v>
       </c>
-      <c r="J140" s="20" t="s">
+      <c r="J140" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K140" s="1" t="str">
         <f t="shared" si="2"/>
         <v>同</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="10">
+      <c r="L140" s="36">
         <v>220118</v>
       </c>
+      <c r="M140" s="40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="36">
+        <v>220118</v>
+      </c>
       <c r="B141" s="1">
         <v>1</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="40" t="s">
         <v>19</v>
       </c>
       <c r="D141" s="1">
@@ -6269,31 +6437,32 @@
       <c r="E141" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G141" s="13">
+      <c r="G141" s="10">
         <v>220118</v>
       </c>
-      <c r="H141" s="18" t="s">
+      <c r="H141" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I141" s="20">
+      <c r="I141" s="17">
         <v>25</v>
       </c>
-      <c r="J141" s="20" t="s">
+      <c r="J141" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K141" s="1" t="str">
         <f t="shared" si="2"/>
         <v>同</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="10">
+      <c r="L141" s="7"/>
+    </row>
+    <row r="142" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="7">
         <v>220119</v>
       </c>
       <c r="B142" s="1">
         <v>1</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="39" t="s">
         <v>101</v>
       </c>
       <c r="D142" s="2">
@@ -6302,31 +6471,37 @@
       <c r="E142" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G142" s="13">
+      <c r="G142" s="10">
         <v>220119</v>
       </c>
-      <c r="H142" s="18" t="s">
+      <c r="H142" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="I142" s="20">
+      <c r="I142" s="17">
         <v>10</v>
       </c>
-      <c r="J142" s="20" t="s">
+      <c r="J142" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K142" s="1" t="str">
         <f t="shared" si="2"/>
         <v>同</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="10">
+      <c r="L142" s="36">
         <v>220120</v>
       </c>
+      <c r="M142" s="40" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="36">
+        <v>220120</v>
+      </c>
       <c r="B143" s="1">
         <v>1</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="40" t="s">
         <v>102</v>
       </c>
       <c r="D143" s="2">
@@ -6335,31 +6510,37 @@
       <c r="E143" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G143" s="13">
+      <c r="G143" s="10">
         <v>220120</v>
       </c>
-      <c r="H143" s="18" t="s">
+      <c r="H143" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="I143" s="20">
+      <c r="I143" s="17">
         <v>3</v>
       </c>
-      <c r="J143" s="20" t="s">
+      <c r="J143" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K143" s="1" t="str">
         <f t="shared" si="2"/>
         <v>同</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="10">
+      <c r="L143" s="36">
         <v>220121</v>
       </c>
+      <c r="M143" s="40" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="36">
+        <v>220121</v>
+      </c>
       <c r="B144" s="1">
         <v>1</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="40" t="s">
         <v>103</v>
       </c>
       <c r="D144" s="1">
@@ -6368,31 +6549,37 @@
       <c r="E144" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G144" s="13">
+      <c r="G144" s="10">
         <v>220121</v>
       </c>
-      <c r="H144" s="18" t="s">
+      <c r="H144" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="I144" s="20">
+      <c r="I144" s="17">
         <v>5</v>
       </c>
-      <c r="J144" s="20" t="s">
+      <c r="J144" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K144" s="1" t="str">
         <f t="shared" si="2"/>
         <v>同</v>
       </c>
-    </row>
-    <row r="145" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="10">
+      <c r="L144" s="36">
         <v>220122</v>
       </c>
+      <c r="M144" s="40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="36">
+        <v>220122</v>
+      </c>
       <c r="B145" s="1">
         <v>1</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="40" t="s">
         <v>104</v>
       </c>
       <c r="D145" s="1">
@@ -6401,31 +6588,37 @@
       <c r="E145" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G145" s="13">
+      <c r="G145" s="10">
         <v>220122</v>
       </c>
-      <c r="H145" s="18" t="s">
+      <c r="H145" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="I145" s="20">
-        <v>1</v>
-      </c>
-      <c r="J145" s="20" t="s">
+      <c r="I145" s="17">
+        <v>1</v>
+      </c>
+      <c r="J145" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K145" s="1" t="str">
         <f t="shared" si="2"/>
         <v>同</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="10">
+      <c r="L145" s="36">
         <v>220123</v>
       </c>
+      <c r="M145" s="40" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="36">
+        <v>220123</v>
+      </c>
       <c r="B146" s="1">
         <v>1</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="40" t="s">
         <v>105</v>
       </c>
       <c r="D146" s="1">
@@ -6434,31 +6627,37 @@
       <c r="E146" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G146" s="13">
+      <c r="G146" s="10">
         <v>220123</v>
       </c>
-      <c r="H146" s="18" t="s">
+      <c r="H146" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="I146" s="20">
+      <c r="I146" s="17">
         <v>40</v>
       </c>
-      <c r="J146" s="20" t="s">
+      <c r="J146" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K146" s="1" t="str">
         <f t="shared" si="2"/>
         <v>同</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="10">
+      <c r="L146" s="36">
         <v>220124</v>
       </c>
+      <c r="M146" s="40" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="36">
+        <v>220124</v>
+      </c>
       <c r="B147" s="1">
         <v>1</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="40" t="s">
         <v>106</v>
       </c>
       <c r="D147" s="1">
@@ -6467,16 +6666,16 @@
       <c r="E147" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G147" s="13">
+      <c r="G147" s="10">
         <v>220124</v>
       </c>
-      <c r="H147" s="18" t="s">
+      <c r="H147" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="I147" s="20">
+      <c r="I147" s="17">
         <v>50</v>
       </c>
-      <c r="J147" s="20" t="s">
+      <c r="J147" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K147" s="1" t="str">
@@ -6484,14 +6683,14 @@
         <v>同</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="10">
+    <row r="148" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="7">
         <v>220201</v>
       </c>
       <c r="B148" s="1">
         <v>1</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="39" t="s">
         <v>107</v>
       </c>
       <c r="D148" s="1">
@@ -6500,16 +6699,16 @@
       <c r="E148" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G148" s="13">
+      <c r="G148" s="10">
         <v>220201</v>
       </c>
-      <c r="H148" s="19" t="s">
+      <c r="H148" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="I148" s="20">
+      <c r="I148" s="17">
         <v>25</v>
       </c>
-      <c r="J148" s="20" t="s">
+      <c r="J148" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K148" s="1" t="str">
@@ -6517,35 +6716,35 @@
         <v>同</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="34">
+    <row r="149" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="31">
         <v>200531</v>
       </c>
       <c r="B149" s="1">
         <v>1</v>
       </c>
-      <c r="C149" s="8" t="s">
+      <c r="C149" s="41" t="s">
         <v>109</v>
       </c>
       <c r="D149" s="1">
         <v>1</v>
       </c>
-      <c r="E149" s="32" t="s">
+      <c r="E149" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="F149" s="12">
+      <c r="F149" s="9">
         <v>200531</v>
       </c>
-      <c r="G149" s="13">
+      <c r="G149" s="10">
         <v>200531</v>
       </c>
-      <c r="H149" s="13" t="s">
+      <c r="H149" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="I149" s="20">
-        <v>1</v>
-      </c>
-      <c r="J149" s="20" t="s">
+      <c r="I149" s="17">
+        <v>1</v>
+      </c>
+      <c r="J149" s="17" t="s">
         <v>194</v>
       </c>
       <c r="K149" s="1" t="str">
@@ -6553,35 +6752,35 @@
         <v>同</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="34">
+    <row r="150" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="31">
         <v>200532</v>
       </c>
       <c r="B150" s="1">
         <v>1</v>
       </c>
-      <c r="C150" s="8" t="s">
+      <c r="C150" s="41" t="s">
         <v>110</v>
       </c>
       <c r="D150" s="1">
         <v>1</v>
       </c>
-      <c r="E150" s="32" t="s">
+      <c r="E150" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="F150" s="12">
+      <c r="F150" s="9">
         <v>200532</v>
       </c>
-      <c r="G150" s="13">
+      <c r="G150" s="10">
         <v>200532</v>
       </c>
-      <c r="H150" s="13" t="s">
+      <c r="H150" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="I150" s="20">
-        <v>1</v>
-      </c>
-      <c r="J150" s="20" t="s">
+      <c r="I150" s="17">
+        <v>1</v>
+      </c>
+      <c r="J150" s="17" t="s">
         <v>194</v>
       </c>
       <c r="K150" s="1" t="str">
@@ -6589,35 +6788,35 @@
         <v>同</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="34">
+    <row r="151" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="31">
         <v>200533</v>
       </c>
       <c r="B151" s="1">
         <v>1</v>
       </c>
-      <c r="C151" s="8" t="s">
+      <c r="C151" s="41" t="s">
         <v>111</v>
       </c>
       <c r="D151" s="1">
         <v>1</v>
       </c>
-      <c r="E151" s="32" t="s">
+      <c r="E151" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="F151" s="12">
+      <c r="F151" s="9">
         <v>200533</v>
       </c>
-      <c r="G151" s="13">
+      <c r="G151" s="10">
         <v>200533</v>
       </c>
-      <c r="H151" s="13" t="s">
+      <c r="H151" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="I151" s="20">
-        <v>1</v>
-      </c>
-      <c r="J151" s="20" t="s">
+      <c r="I151" s="17">
+        <v>1</v>
+      </c>
+      <c r="J151" s="17" t="s">
         <v>194</v>
       </c>
       <c r="K151" s="1" t="str">
@@ -6625,35 +6824,35 @@
         <v>同</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="34">
+    <row r="152" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="31">
         <v>200534</v>
       </c>
       <c r="B152" s="1">
         <v>1</v>
       </c>
-      <c r="C152" s="8" t="s">
+      <c r="C152" s="41" t="s">
         <v>112</v>
       </c>
       <c r="D152" s="1">
         <v>1</v>
       </c>
-      <c r="E152" s="32" t="s">
+      <c r="E152" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="F152" s="12">
+      <c r="F152" s="9">
         <v>200534</v>
       </c>
-      <c r="G152" s="13">
+      <c r="G152" s="10">
         <v>200534</v>
       </c>
-      <c r="H152" s="13" t="s">
+      <c r="H152" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="I152" s="20">
-        <v>1</v>
-      </c>
-      <c r="J152" s="20" t="s">
+      <c r="I152" s="17">
+        <v>1</v>
+      </c>
+      <c r="J152" s="17" t="s">
         <v>194</v>
       </c>
       <c r="K152" s="1" t="str">
@@ -6661,35 +6860,35 @@
         <v>同</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="34">
+    <row r="153" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="31">
         <v>200535</v>
       </c>
       <c r="B153" s="1">
         <v>1</v>
       </c>
-      <c r="C153" s="8" t="s">
+      <c r="C153" s="41" t="s">
         <v>113</v>
       </c>
       <c r="D153" s="1">
         <v>1</v>
       </c>
-      <c r="E153" s="32" t="s">
+      <c r="E153" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="F153" s="12">
+      <c r="F153" s="9">
         <v>200535</v>
       </c>
-      <c r="G153" s="13">
+      <c r="G153" s="10">
         <v>200535</v>
       </c>
-      <c r="H153" s="13" t="s">
+      <c r="H153" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="I153" s="20">
-        <v>1</v>
-      </c>
-      <c r="J153" s="20" t="s">
+      <c r="I153" s="17">
+        <v>1</v>
+      </c>
+      <c r="J153" s="17" t="s">
         <v>194</v>
       </c>
       <c r="K153" s="1" t="str">
@@ -6697,35 +6896,35 @@
         <v>同</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="34">
+    <row r="154" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="31">
         <v>200536</v>
       </c>
       <c r="B154" s="1">
         <v>1</v>
       </c>
-      <c r="C154" s="8" t="s">
+      <c r="C154" s="41" t="s">
         <v>114</v>
       </c>
       <c r="D154" s="1">
         <v>1</v>
       </c>
-      <c r="E154" s="32" t="s">
+      <c r="E154" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="F154" s="12">
+      <c r="F154" s="9">
         <v>200536</v>
       </c>
-      <c r="G154" s="13">
+      <c r="G154" s="10">
         <v>200536</v>
       </c>
-      <c r="H154" s="13" t="s">
+      <c r="H154" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="I154" s="20">
-        <v>1</v>
-      </c>
-      <c r="J154" s="20" t="s">
+      <c r="I154" s="17">
+        <v>1</v>
+      </c>
+      <c r="J154" s="17" t="s">
         <v>194</v>
       </c>
       <c r="K154" s="1" t="str">
@@ -6733,32 +6932,32 @@
         <v>同</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="36">
+    <row r="155" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="33">
         <v>210501</v>
       </c>
       <c r="B155" s="1">
         <v>1</v>
       </c>
-      <c r="C155" s="13" t="s">
+      <c r="C155" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="D155" s="20">
+      <c r="D155" s="17">
         <v>30</v>
       </c>
       <c r="E155" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G155" s="13">
+      <c r="G155" s="10">
         <v>210501</v>
       </c>
-      <c r="H155" s="13" t="s">
+      <c r="H155" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="I155" s="20">
+      <c r="I155" s="17">
         <v>30</v>
       </c>
-      <c r="J155" s="20" t="s">
+      <c r="J155" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K155" s="1" t="str">
@@ -6766,32 +6965,32 @@
         <v>同</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="36">
+    <row r="156" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="33">
         <v>210502</v>
       </c>
       <c r="B156" s="1">
         <v>1</v>
       </c>
-      <c r="C156" s="13" t="s">
+      <c r="C156" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="D156" s="20">
+      <c r="D156" s="17">
         <v>40</v>
       </c>
       <c r="E156" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G156" s="13">
+      <c r="G156" s="10">
         <v>210502</v>
       </c>
-      <c r="H156" s="13" t="s">
+      <c r="H156" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="I156" s="20">
+      <c r="I156" s="17">
         <v>40</v>
       </c>
-      <c r="J156" s="20" t="s">
+      <c r="J156" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K156" s="1" t="str">
@@ -6799,30 +6998,30 @@
         <v>同</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="36">
+    <row r="157" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="33">
         <v>210503</v>
       </c>
       <c r="B157" s="1">
         <v>1</v>
       </c>
-      <c r="C157" s="13" t="s">
+      <c r="C157" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="D157" s="22">
+      <c r="D157" s="19">
         <v>0</v>
       </c>
       <c r="E157" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G157" s="13">
+      <c r="G157" s="10">
         <v>210503</v>
       </c>
-      <c r="H157" s="13" t="s">
+      <c r="H157" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="I157" s="22"/>
-      <c r="J157" s="20" t="s">
+      <c r="I157" s="19"/>
+      <c r="J157" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K157" s="1" t="str">
@@ -6830,30 +7029,30 @@
         <v>同</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="36">
+    <row r="158" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="33">
         <v>210504</v>
       </c>
       <c r="B158" s="1">
         <v>1</v>
       </c>
-      <c r="C158" s="13" t="s">
+      <c r="C158" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="D158" s="22">
+      <c r="D158" s="19">
         <v>0</v>
       </c>
       <c r="E158" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G158" s="13">
+      <c r="G158" s="10">
         <v>210504</v>
       </c>
-      <c r="H158" s="13" t="s">
+      <c r="H158" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="I158" s="22"/>
-      <c r="J158" s="20" t="s">
+      <c r="I158" s="19"/>
+      <c r="J158" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K158" s="1" t="str">
@@ -6861,30 +7060,30 @@
         <v>同</v>
       </c>
     </row>
-    <row r="159" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="36">
+    <row r="159" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="33">
         <v>210505</v>
       </c>
       <c r="B159" s="1">
         <v>1</v>
       </c>
-      <c r="C159" s="13" t="s">
+      <c r="C159" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="D159" s="22">
+      <c r="D159" s="19">
         <v>0</v>
       </c>
       <c r="E159" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G159" s="13">
+      <c r="G159" s="10">
         <v>210505</v>
       </c>
-      <c r="H159" s="13" t="s">
+      <c r="H159" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="I159" s="22"/>
-      <c r="J159" s="20" t="s">
+      <c r="I159" s="19"/>
+      <c r="J159" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K159" s="1" t="str">
@@ -6892,30 +7091,30 @@
         <v>同</v>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="36">
+    <row r="160" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="33">
         <v>210506</v>
       </c>
       <c r="B160" s="1">
         <v>1</v>
       </c>
-      <c r="C160" s="13" t="s">
+      <c r="C160" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D160" s="22">
+      <c r="D160" s="19">
         <v>0</v>
       </c>
       <c r="E160" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G160" s="13">
+      <c r="G160" s="10">
         <v>210506</v>
       </c>
-      <c r="H160" s="13" t="s">
+      <c r="H160" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="I160" s="22"/>
-      <c r="J160" s="20" t="s">
+      <c r="I160" s="19"/>
+      <c r="J160" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K160" s="1" t="str">
@@ -6924,29 +7123,29 @@
       </c>
     </row>
     <row r="161" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="36">
+      <c r="A161" s="33">
         <v>210507</v>
       </c>
       <c r="B161" s="1">
         <v>1</v>
       </c>
-      <c r="C161" s="13" t="s">
+      <c r="C161" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="D161" s="22">
+      <c r="D161" s="19">
         <v>0</v>
       </c>
       <c r="E161" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G161" s="13">
+      <c r="G161" s="10">
         <v>210507</v>
       </c>
-      <c r="H161" s="13" t="s">
+      <c r="H161" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="I161" s="22"/>
-      <c r="J161" s="20" t="s">
+      <c r="I161" s="19"/>
+      <c r="J161" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K161" s="1" t="str">
@@ -6955,29 +7154,29 @@
       </c>
     </row>
     <row r="162" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="36">
+      <c r="A162" s="33">
         <v>210508</v>
       </c>
       <c r="B162" s="1">
         <v>1</v>
       </c>
-      <c r="C162" s="13" t="s">
+      <c r="C162" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="D162" s="22">
+      <c r="D162" s="19">
         <v>0</v>
       </c>
       <c r="E162" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G162" s="13">
+      <c r="G162" s="10">
         <v>210508</v>
       </c>
-      <c r="H162" s="13" t="s">
+      <c r="H162" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="I162" s="22"/>
-      <c r="J162" s="20" t="s">
+      <c r="I162" s="19"/>
+      <c r="J162" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K162" s="1" t="str">
@@ -6986,29 +7185,29 @@
       </c>
     </row>
     <row r="163" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="36">
+      <c r="A163" s="33">
         <v>210509</v>
       </c>
       <c r="B163" s="1">
         <v>1</v>
       </c>
-      <c r="C163" s="13" t="s">
+      <c r="C163" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="D163" s="22">
+      <c r="D163" s="19">
         <v>0</v>
       </c>
       <c r="E163" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G163" s="13">
+      <c r="G163" s="10">
         <v>210509</v>
       </c>
-      <c r="H163" s="13" t="s">
+      <c r="H163" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="I163" s="22"/>
-      <c r="J163" s="20" t="s">
+      <c r="I163" s="19"/>
+      <c r="J163" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K163" s="1" t="str">
@@ -7017,29 +7216,29 @@
       </c>
     </row>
     <row r="164" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="36">
+      <c r="A164" s="33">
         <v>210510</v>
       </c>
       <c r="B164" s="1">
         <v>1</v>
       </c>
-      <c r="C164" s="13" t="s">
+      <c r="C164" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="D164" s="22">
+      <c r="D164" s="19">
         <v>0</v>
       </c>
       <c r="E164" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G164" s="13">
+      <c r="G164" s="10">
         <v>210510</v>
       </c>
-      <c r="H164" s="13" t="s">
+      <c r="H164" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="I164" s="22"/>
-      <c r="J164" s="20" t="s">
+      <c r="I164" s="19"/>
+      <c r="J164" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K164" s="1" t="str">
@@ -7048,29 +7247,29 @@
       </c>
     </row>
     <row r="165" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="36">
+      <c r="A165" s="33">
         <v>210511</v>
       </c>
       <c r="B165" s="1">
         <v>1</v>
       </c>
-      <c r="C165" s="13" t="s">
+      <c r="C165" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="D165" s="22">
+      <c r="D165" s="19">
         <v>0</v>
       </c>
       <c r="E165" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G165" s="13">
+      <c r="G165" s="10">
         <v>210511</v>
       </c>
-      <c r="H165" s="13" t="s">
+      <c r="H165" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="I165" s="22"/>
-      <c r="J165" s="20" t="s">
+      <c r="I165" s="19"/>
+      <c r="J165" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K165" s="1" t="str">
@@ -7079,29 +7278,29 @@
       </c>
     </row>
     <row r="166" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="36">
+      <c r="A166" s="33">
         <v>210512</v>
       </c>
       <c r="B166" s="1">
         <v>1</v>
       </c>
-      <c r="C166" s="13" t="s">
+      <c r="C166" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D166" s="22">
+      <c r="D166" s="19">
         <v>0</v>
       </c>
       <c r="E166" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G166" s="13">
+      <c r="G166" s="10">
         <v>210512</v>
       </c>
-      <c r="H166" s="13" t="s">
+      <c r="H166" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="I166" s="22"/>
-      <c r="J166" s="20" t="s">
+      <c r="I166" s="19"/>
+      <c r="J166" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K166" s="1" t="str">
@@ -7110,29 +7309,29 @@
       </c>
     </row>
     <row r="167" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="36">
+      <c r="A167" s="33">
         <v>210513</v>
       </c>
       <c r="B167" s="1">
         <v>1</v>
       </c>
-      <c r="C167" s="13" t="s">
+      <c r="C167" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D167" s="22">
+      <c r="D167" s="19">
         <v>0</v>
       </c>
-      <c r="E167" s="33" t="s">
+      <c r="E167" s="30" t="s">
         <v>212</v>
       </c>
-      <c r="G167" s="13">
+      <c r="G167" s="10">
         <v>210513</v>
       </c>
-      <c r="H167" s="13" t="s">
+      <c r="H167" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="I167" s="25"/>
-      <c r="J167" s="20" t="s">
+      <c r="I167" s="22"/>
+      <c r="J167" s="17" t="s">
         <v>194</v>
       </c>
       <c r="K167" s="1" t="str">
@@ -7141,29 +7340,29 @@
       </c>
     </row>
     <row r="168" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="36">
+      <c r="A168" s="33">
         <v>211001</v>
       </c>
       <c r="B168" s="1">
         <v>1</v>
       </c>
-      <c r="C168" s="13" t="s">
+      <c r="C168" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="D168" s="22">
+      <c r="D168" s="19">
         <v>0</v>
       </c>
       <c r="E168" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G168" s="13">
+      <c r="G168" s="10">
         <v>211001</v>
       </c>
-      <c r="H168" s="13" t="s">
+      <c r="H168" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="I168" s="22"/>
-      <c r="J168" s="20" t="s">
+      <c r="I168" s="19"/>
+      <c r="J168" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K168" s="1" t="str">
@@ -7172,29 +7371,29 @@
       </c>
     </row>
     <row r="169" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="36">
+      <c r="A169" s="33">
         <v>211002</v>
       </c>
       <c r="B169" s="1">
         <v>1</v>
       </c>
-      <c r="C169" s="13" t="s">
+      <c r="C169" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="D169" s="22">
+      <c r="D169" s="19">
         <v>0</v>
       </c>
       <c r="E169" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G169" s="13">
+      <c r="G169" s="10">
         <v>211002</v>
       </c>
-      <c r="H169" s="13" t="s">
+      <c r="H169" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="I169" s="22"/>
-      <c r="J169" s="20" t="s">
+      <c r="I169" s="19"/>
+      <c r="J169" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K169" s="1" t="str">
@@ -7203,29 +7402,29 @@
       </c>
     </row>
     <row r="170" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="36">
+      <c r="A170" s="33">
         <v>211003</v>
       </c>
       <c r="B170" s="1">
         <v>1</v>
       </c>
-      <c r="C170" s="13" t="s">
+      <c r="C170" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="D170" s="22">
+      <c r="D170" s="19">
         <v>0</v>
       </c>
       <c r="E170" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G170" s="13">
+      <c r="G170" s="10">
         <v>211003</v>
       </c>
-      <c r="H170" s="13" t="s">
+      <c r="H170" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="I170" s="22"/>
-      <c r="J170" s="20" t="s">
+      <c r="I170" s="19"/>
+      <c r="J170" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K170" s="1" t="str">
@@ -7234,29 +7433,29 @@
       </c>
     </row>
     <row r="171" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="36">
+      <c r="A171" s="33">
         <v>211004</v>
       </c>
       <c r="B171" s="1">
         <v>1</v>
       </c>
-      <c r="C171" s="13" t="s">
+      <c r="C171" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="D171" s="22">
+      <c r="D171" s="19">
         <v>0</v>
       </c>
       <c r="E171" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G171" s="13">
+      <c r="G171" s="10">
         <v>211004</v>
       </c>
-      <c r="H171" s="13" t="s">
+      <c r="H171" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="I171" s="22"/>
-      <c r="J171" s="20" t="s">
+      <c r="I171" s="19"/>
+      <c r="J171" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K171" s="1" t="str">
@@ -7265,29 +7464,29 @@
       </c>
     </row>
     <row r="172" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="36">
+      <c r="A172" s="33">
         <v>211005</v>
       </c>
       <c r="B172" s="1">
         <v>1</v>
       </c>
-      <c r="C172" s="13" t="s">
+      <c r="C172" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="D172" s="22">
+      <c r="D172" s="19">
         <v>0</v>
       </c>
       <c r="E172" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G172" s="13">
+      <c r="G172" s="10">
         <v>211005</v>
       </c>
-      <c r="H172" s="13" t="s">
+      <c r="H172" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="I172" s="22"/>
-      <c r="J172" s="20" t="s">
+      <c r="I172" s="19"/>
+      <c r="J172" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K172" s="1" t="str">
@@ -7296,29 +7495,29 @@
       </c>
     </row>
     <row r="173" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="36">
+      <c r="A173" s="33">
         <v>211006</v>
       </c>
       <c r="B173" s="1">
         <v>1</v>
       </c>
-      <c r="C173" s="13" t="s">
+      <c r="C173" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D173" s="22">
+      <c r="D173" s="19">
         <v>0</v>
       </c>
       <c r="E173" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G173" s="13">
+      <c r="G173" s="10">
         <v>211006</v>
       </c>
-      <c r="H173" s="13" t="s">
+      <c r="H173" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="I173" s="22"/>
-      <c r="J173" s="20" t="s">
+      <c r="I173" s="19"/>
+      <c r="J173" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K173" s="1" t="str">
@@ -7327,29 +7526,29 @@
       </c>
     </row>
     <row r="174" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="36">
+      <c r="A174" s="33">
         <v>211007</v>
       </c>
       <c r="B174" s="1">
         <v>1</v>
       </c>
-      <c r="C174" s="13" t="s">
+      <c r="C174" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="D174" s="22">
+      <c r="D174" s="19">
         <v>0</v>
       </c>
       <c r="E174" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G174" s="13">
+      <c r="G174" s="10">
         <v>211007</v>
       </c>
-      <c r="H174" s="13" t="s">
+      <c r="H174" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="I174" s="22"/>
-      <c r="J174" s="20" t="s">
+      <c r="I174" s="19"/>
+      <c r="J174" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K174" s="1" t="str">
@@ -7358,29 +7557,29 @@
       </c>
     </row>
     <row r="175" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="36">
+      <c r="A175" s="33">
         <v>211008</v>
       </c>
       <c r="B175" s="1">
         <v>1</v>
       </c>
-      <c r="C175" s="13" t="s">
+      <c r="C175" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="D175" s="22">
+      <c r="D175" s="19">
         <v>0</v>
       </c>
-      <c r="E175" s="27" t="s">
+      <c r="E175" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="G175" s="13">
+      <c r="G175" s="10">
         <v>211008</v>
       </c>
-      <c r="H175" s="13" t="s">
+      <c r="H175" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="I175" s="22"/>
-      <c r="J175" s="20" t="s">
+      <c r="I175" s="19"/>
+      <c r="J175" s="17" t="s">
         <v>198</v>
       </c>
       <c r="K175" s="1" t="str">
@@ -7389,29 +7588,29 @@
       </c>
     </row>
     <row r="176" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="36">
+      <c r="A176" s="33">
         <v>211009</v>
       </c>
       <c r="B176" s="1">
         <v>1</v>
       </c>
-      <c r="C176" s="13" t="s">
+      <c r="C176" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="D176" s="22">
+      <c r="D176" s="19">
         <v>0</v>
       </c>
       <c r="E176" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G176" s="13">
+      <c r="G176" s="10">
         <v>211009</v>
       </c>
-      <c r="H176" s="13" t="s">
+      <c r="H176" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="I176" s="22"/>
-      <c r="J176" s="20" t="s">
+      <c r="I176" s="19"/>
+      <c r="J176" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K176" s="1" t="str">
@@ -7420,29 +7619,29 @@
       </c>
     </row>
     <row r="177" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="36">
+      <c r="A177" s="33">
         <v>211010</v>
       </c>
       <c r="B177" s="1">
         <v>1</v>
       </c>
-      <c r="C177" s="13" t="s">
+      <c r="C177" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="D177" s="22">
+      <c r="D177" s="19">
         <v>0</v>
       </c>
       <c r="E177" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G177" s="13">
+      <c r="G177" s="10">
         <v>211010</v>
       </c>
-      <c r="H177" s="13" t="s">
+      <c r="H177" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="I177" s="22"/>
-      <c r="J177" s="20" t="s">
+      <c r="I177" s="19"/>
+      <c r="J177" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K177" s="1" t="str">
@@ -7451,29 +7650,29 @@
       </c>
     </row>
     <row r="178" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="36">
+      <c r="A178" s="33">
         <v>211011</v>
       </c>
       <c r="B178" s="1">
         <v>1</v>
       </c>
-      <c r="C178" s="13" t="s">
+      <c r="C178" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="D178" s="22">
+      <c r="D178" s="19">
         <v>0</v>
       </c>
       <c r="E178" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G178" s="13">
+      <c r="G178" s="10">
         <v>211011</v>
       </c>
-      <c r="H178" s="13" t="s">
+      <c r="H178" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="I178" s="22"/>
-      <c r="J178" s="20" t="s">
+      <c r="I178" s="19"/>
+      <c r="J178" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K178" s="1" t="str">
@@ -7482,29 +7681,29 @@
       </c>
     </row>
     <row r="179" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="36">
+      <c r="A179" s="33">
         <v>211012</v>
       </c>
       <c r="B179" s="1">
         <v>1</v>
       </c>
-      <c r="C179" s="13" t="s">
+      <c r="C179" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="D179" s="22">
+      <c r="D179" s="19">
         <v>0</v>
       </c>
       <c r="E179" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G179" s="13">
+      <c r="G179" s="10">
         <v>211012</v>
       </c>
-      <c r="H179" s="13" t="s">
+      <c r="H179" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="I179" s="22"/>
-      <c r="J179" s="20" t="s">
+      <c r="I179" s="19"/>
+      <c r="J179" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K179" s="1" t="str">
@@ -7513,29 +7712,29 @@
       </c>
     </row>
     <row r="180" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="36">
+      <c r="A180" s="33">
         <v>211013</v>
       </c>
       <c r="B180" s="1">
         <v>1</v>
       </c>
-      <c r="C180" s="13" t="s">
+      <c r="C180" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="D180" s="22">
+      <c r="D180" s="19">
         <v>0</v>
       </c>
       <c r="E180" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G180" s="13">
+      <c r="G180" s="10">
         <v>211013</v>
       </c>
-      <c r="H180" s="13" t="s">
+      <c r="H180" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="I180" s="22"/>
-      <c r="J180" s="20" t="s">
+      <c r="I180" s="19"/>
+      <c r="J180" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K180" s="1" t="str">
@@ -7544,29 +7743,29 @@
       </c>
     </row>
     <row r="181" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="36">
+      <c r="A181" s="33">
         <v>211014</v>
       </c>
       <c r="B181" s="1">
         <v>1</v>
       </c>
-      <c r="C181" s="13" t="s">
+      <c r="C181" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D181" s="22">
+      <c r="D181" s="19">
         <v>0</v>
       </c>
       <c r="E181" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G181" s="13">
+      <c r="G181" s="10">
         <v>211014</v>
       </c>
-      <c r="H181" s="13" t="s">
+      <c r="H181" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="I181" s="22"/>
-      <c r="J181" s="20" t="s">
+      <c r="I181" s="19"/>
+      <c r="J181" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K181" s="1" t="str">
@@ -7575,29 +7774,29 @@
       </c>
     </row>
     <row r="182" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="36">
+      <c r="A182" s="33">
         <v>211015</v>
       </c>
       <c r="B182" s="1">
         <v>1</v>
       </c>
-      <c r="C182" s="13" t="s">
+      <c r="C182" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="D182" s="22">
+      <c r="D182" s="19">
         <v>0</v>
       </c>
       <c r="E182" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G182" s="13">
+      <c r="G182" s="10">
         <v>211015</v>
       </c>
-      <c r="H182" s="13" t="s">
+      <c r="H182" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="I182" s="22"/>
-      <c r="J182" s="20" t="s">
+      <c r="I182" s="19"/>
+      <c r="J182" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K182" s="1" t="str">
@@ -7606,29 +7805,29 @@
       </c>
     </row>
     <row r="183" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="36">
+      <c r="A183" s="33">
         <v>211016</v>
       </c>
       <c r="B183" s="1">
         <v>1</v>
       </c>
-      <c r="C183" s="13" t="s">
+      <c r="C183" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="D183" s="22">
+      <c r="D183" s="19">
         <v>0</v>
       </c>
       <c r="E183" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G183" s="13">
+      <c r="G183" s="10">
         <v>211016</v>
       </c>
-      <c r="H183" s="13" t="s">
+      <c r="H183" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="I183" s="22"/>
-      <c r="J183" s="20" t="s">
+      <c r="I183" s="19"/>
+      <c r="J183" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K183" s="1" t="str">
@@ -7637,29 +7836,29 @@
       </c>
     </row>
     <row r="184" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="36">
+      <c r="A184" s="33">
         <v>211101</v>
       </c>
       <c r="B184" s="1">
         <v>1</v>
       </c>
-      <c r="C184" s="13" t="s">
+      <c r="C184" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="D184" s="22">
+      <c r="D184" s="19">
         <v>0</v>
       </c>
       <c r="E184" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G184" s="13">
+      <c r="G184" s="10">
         <v>211101</v>
       </c>
-      <c r="H184" s="13" t="s">
+      <c r="H184" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="I184" s="22"/>
-      <c r="J184" s="20" t="s">
+      <c r="I184" s="19"/>
+      <c r="J184" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K184" s="1" t="str">
@@ -7668,29 +7867,29 @@
       </c>
     </row>
     <row r="185" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="36">
+      <c r="A185" s="33">
         <v>211201</v>
       </c>
       <c r="B185" s="1">
         <v>1</v>
       </c>
-      <c r="C185" s="13" t="s">
+      <c r="C185" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="D185" s="22">
+      <c r="D185" s="19">
         <v>0</v>
       </c>
-      <c r="E185" s="33" t="s">
+      <c r="E185" s="30" t="s">
         <v>212</v>
       </c>
-      <c r="G185" s="13">
+      <c r="G185" s="10">
         <v>211201</v>
       </c>
-      <c r="H185" s="13" t="s">
+      <c r="H185" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="I185" s="22"/>
-      <c r="J185" s="20" t="s">
+      <c r="I185" s="19"/>
+      <c r="J185" s="17" t="s">
         <v>194</v>
       </c>
       <c r="K185" s="1" t="str">
@@ -7699,29 +7898,29 @@
       </c>
     </row>
     <row r="186" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="36">
+      <c r="A186" s="33">
         <v>211202</v>
       </c>
       <c r="B186" s="1">
         <v>1</v>
       </c>
-      <c r="C186" s="14" t="s">
+      <c r="C186" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D186" s="22">
+      <c r="D186" s="19">
         <v>0</v>
       </c>
       <c r="E186" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="G186" s="13">
+      <c r="G186" s="10">
         <v>211202</v>
       </c>
-      <c r="H186" s="14" t="s">
+      <c r="H186" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I186" s="22"/>
-      <c r="J186" s="20" t="s">
+      <c r="I186" s="19"/>
+      <c r="J186" s="17" t="s">
         <v>199</v>
       </c>
       <c r="K186" s="1" t="str">
@@ -7730,29 +7929,29 @@
       </c>
     </row>
     <row r="187" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="36">
+      <c r="A187" s="33">
         <v>211203</v>
       </c>
       <c r="B187" s="1">
         <v>1</v>
       </c>
-      <c r="C187" s="13" t="s">
+      <c r="C187" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="D187" s="22">
+      <c r="D187" s="19">
         <v>0</v>
       </c>
       <c r="E187" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="G187" s="13">
+      <c r="G187" s="10">
         <v>211203</v>
       </c>
-      <c r="H187" s="13" t="s">
+      <c r="H187" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="I187" s="22"/>
-      <c r="J187" s="20" t="s">
+      <c r="I187" s="19"/>
+      <c r="J187" s="17" t="s">
         <v>199</v>
       </c>
       <c r="K187" s="1" t="str">
@@ -7762,20 +7961,20 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="J1:J1048576 K1">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+  <conditionalFormatting sqref="J1:J1048576 K1:L1">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>"Game-Fish"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"Game-Slot"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"Game-Arcade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"Game-Poker"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"Game-Table"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7783,4 +7982,233 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECFFC05C-1643-4CAF-8EC4-75E7AA5C536A}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="36">
+        <v>220101</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="36">
+        <v>220102</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="39"/>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="36">
+        <v>220104</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="36">
+        <v>220105</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="36">
+        <v>220106</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="36">
+        <v>220107</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="36">
+        <v>220108</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="36">
+        <v>220109</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="36">
+        <v>220110</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="36">
+        <v>220111</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="36">
+        <v>220112</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="36">
+        <v>220113</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="36">
+        <v>220114</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="36">
+        <v>220115</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="36">
+        <v>220116</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="36">
+        <v>220117</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="36">
+        <v>220118</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="39"/>
+    </row>
+    <row r="21" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="36">
+        <v>220120</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="36">
+        <v>220121</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="36">
+        <v>220122</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="36">
+        <v>220123</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="36">
+        <v>220124</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Game-Table"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"Game-Poker"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"Game-Arcade"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"Game-Slot"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"Game-Fish"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/input/gameMinBet.xlsx
+++ b/input/gameMinBet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\chiisen\coin_size\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\chiisen\min_bet.ts\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE0179B-CBA5-488D-A89D-CBB65E37D8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FA8150-001E-4515-9029-D7AE1D87958C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1093,9 +1093,26 @@
   </cellStyles>
   <dxfs count="10">
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF7030A0"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1109,14 +1126,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1133,7 +1143,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF7030A0"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1147,24 +1164,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1557,8 +1557,8 @@
   <dimension ref="A1:M187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1:M1"/>
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A147" sqref="A147:XFD147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -5756,12 +5756,6 @@
         <f t="shared" si="1"/>
         <v>同</v>
       </c>
-      <c r="L123" s="36">
-        <v>220101</v>
-      </c>
-      <c r="M123" s="40" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="124" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="36">
@@ -5796,10 +5790,10 @@
         <v>同</v>
       </c>
       <c r="L124" s="36">
-        <v>220102</v>
+        <v>220101</v>
       </c>
       <c r="M124" s="40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="125" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -5834,7 +5828,12 @@
         <f t="shared" si="1"/>
         <v>同</v>
       </c>
-      <c r="L125" s="7"/>
+      <c r="L125" s="36">
+        <v>220102</v>
+      </c>
+      <c r="M125" s="40" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="126" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="7">
@@ -5868,12 +5867,6 @@
         <f t="shared" si="1"/>
         <v>同</v>
       </c>
-      <c r="L126" s="36">
-        <v>220104</v>
-      </c>
-      <c r="M126" s="40" t="s">
-        <v>89</v>
-      </c>
     </row>
     <row r="127" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="36">
@@ -5908,10 +5901,10 @@
         <v>同</v>
       </c>
       <c r="L127" s="36">
-        <v>220105</v>
+        <v>220104</v>
       </c>
       <c r="M127" s="40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="128" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -5947,10 +5940,10 @@
         <v>同</v>
       </c>
       <c r="L128" s="36">
-        <v>220106</v>
+        <v>220105</v>
       </c>
       <c r="M128" s="40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="129" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -5986,10 +5979,10 @@
         <v>同</v>
       </c>
       <c r="L129" s="36">
-        <v>220107</v>
+        <v>220106</v>
       </c>
       <c r="M129" s="40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="130" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -6025,10 +6018,10 @@
         <v>同</v>
       </c>
       <c r="L130" s="36">
-        <v>220108</v>
+        <v>220107</v>
       </c>
       <c r="M130" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="131" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -6064,10 +6057,10 @@
         <v>同</v>
       </c>
       <c r="L131" s="36">
-        <v>220109</v>
+        <v>220108</v>
       </c>
       <c r="M131" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="132" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -6103,10 +6096,10 @@
         <v>同</v>
       </c>
       <c r="L132" s="36">
-        <v>220110</v>
+        <v>220109</v>
       </c>
       <c r="M132" s="40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -6142,10 +6135,10 @@
         <v>同</v>
       </c>
       <c r="L133" s="36">
-        <v>220111</v>
+        <v>220110</v>
       </c>
       <c r="M133" s="40" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
     </row>
     <row r="134" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -6181,10 +6174,10 @@
         <v>同</v>
       </c>
       <c r="L134" s="36">
-        <v>220112</v>
+        <v>220111</v>
       </c>
       <c r="M134" s="40" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -6220,10 +6213,10 @@
         <v>同</v>
       </c>
       <c r="L135" s="36">
-        <v>220113</v>
+        <v>220112</v>
       </c>
       <c r="M135" s="40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="136" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -6259,10 +6252,10 @@
         <v>同</v>
       </c>
       <c r="L136" s="36">
-        <v>220114</v>
+        <v>220113</v>
       </c>
       <c r="M136" s="40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="137" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -6298,10 +6291,10 @@
         <v>同</v>
       </c>
       <c r="L137" s="36">
-        <v>220115</v>
+        <v>220114</v>
       </c>
       <c r="M137" s="40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="138" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -6337,10 +6330,10 @@
         <v>同</v>
       </c>
       <c r="L138" s="36">
-        <v>220116</v>
+        <v>220115</v>
       </c>
       <c r="M138" s="40" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
     </row>
     <row r="139" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -6376,10 +6369,10 @@
         <v>同</v>
       </c>
       <c r="L139" s="36">
-        <v>220117</v>
+        <v>220116</v>
       </c>
       <c r="M139" s="40" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -6415,10 +6408,10 @@
         <v>同</v>
       </c>
       <c r="L140" s="36">
-        <v>220118</v>
+        <v>220117</v>
       </c>
       <c r="M140" s="40" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
     </row>
     <row r="141" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -6453,7 +6446,12 @@
         <f t="shared" si="2"/>
         <v>同</v>
       </c>
-      <c r="L141" s="7"/>
+      <c r="L141" s="36">
+        <v>220118</v>
+      </c>
+      <c r="M141" s="40" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="142" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="7">
@@ -6487,12 +6485,6 @@
         <f t="shared" si="2"/>
         <v>同</v>
       </c>
-      <c r="L142" s="36">
-        <v>220120</v>
-      </c>
-      <c r="M142" s="40" t="s">
-        <v>102</v>
-      </c>
     </row>
     <row r="143" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="36">
@@ -6527,10 +6519,10 @@
         <v>同</v>
       </c>
       <c r="L143" s="36">
-        <v>220121</v>
+        <v>220120</v>
       </c>
       <c r="M143" s="40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="144" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -6566,10 +6558,10 @@
         <v>同</v>
       </c>
       <c r="L144" s="36">
-        <v>220122</v>
+        <v>220121</v>
       </c>
       <c r="M144" s="40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="145" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -6605,10 +6597,10 @@
         <v>同</v>
       </c>
       <c r="L145" s="36">
-        <v>220123</v>
+        <v>220122</v>
       </c>
       <c r="M145" s="40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="146" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -6644,10 +6636,10 @@
         <v>同</v>
       </c>
       <c r="L146" s="36">
-        <v>220124</v>
+        <v>220123</v>
       </c>
       <c r="M146" s="40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="147" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -6682,6 +6674,12 @@
         <f t="shared" si="2"/>
         <v>同</v>
       </c>
+      <c r="L147" s="36">
+        <v>220124</v>
+      </c>
+      <c r="M147" s="40" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="148" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="7">
@@ -7962,20 +7960,20 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J1:J1048576 K1:L1">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
-      <formula>"Game-Fish"</formula>
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+      <formula>"Game-Table"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
-      <formula>"Game-Slot"</formula>
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+      <formula>"Game-Poker"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"Game-Arcade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
-      <formula>"Game-Poker"</formula>
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+      <formula>"Game-Slot"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
-      <formula>"Game-Table"</formula>
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"Game-Fish"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -8193,19 +8191,19 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"Game-Table"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"Game-Poker"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Game-Arcade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"Game-Slot"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"Game-Fish"</formula>
     </cfRule>
   </conditionalFormatting>
